--- a/cricket_stats.xlsx
+++ b/cricket_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sandeepkumar/Documents/04_Learning &amp; Skills Improvement/MCS/Courses/CS416_DataVisualization/LAB/cricket-stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AF922B-DB8D-1945-80EB-991B7A3ABD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5041ECFD-91DE-5140-84CF-869D3C102E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16080" yWindow="5000" windowWidth="28040" windowHeight="16580" activeTab="1" xr2:uid="{272A4FAE-3044-684E-B9DF-94C5C5EFD70B}"/>
+    <workbookView xWindow="15600" yWindow="8840" windowWidth="28040" windowHeight="16580" xr2:uid="{272A4FAE-3044-684E-B9DF-94C5C5EFD70B}"/>
   </bookViews>
   <sheets>
     <sheet name="Test - matches" sheetId="1" r:id="rId1"/>
@@ -566,8 +566,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L843"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M851" sqref="M851"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -608,7 +608,7 @@
       </c>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -644,7 +644,7 @@
       </c>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -680,7 +680,7 @@
       </c>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -716,7 +716,7 @@
       </c>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -752,7 +752,7 @@
       </c>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -788,7 +788,7 @@
       </c>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -824,7 +824,7 @@
       </c>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -860,7 +860,7 @@
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -896,7 +896,7 @@
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -932,7 +932,7 @@
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -968,7 +968,7 @@
       </c>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1040,7 +1040,7 @@
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1112,7 +1112,7 @@
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1292,7 +1292,7 @@
       </c>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1400,7 +1400,7 @@
       </c>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -1436,7 +1436,7 @@
       </c>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -1580,7 +1580,7 @@
       </c>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -1616,7 +1616,7 @@
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -1652,7 +1652,7 @@
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -1724,7 +1724,7 @@
       </c>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -1760,7 +1760,7 @@
       </c>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -1832,7 +1832,7 @@
       </c>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -1868,7 +1868,7 @@
       </c>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -1904,7 +1904,7 @@
       </c>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -1940,7 +1940,7 @@
       </c>
       <c r="L38" s="3"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -2012,7 +2012,7 @@
       </c>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -2048,7 +2048,7 @@
       </c>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -2156,7 +2156,7 @@
       </c>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -2264,7 +2264,7 @@
       </c>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -2300,7 +2300,7 @@
       </c>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -2336,7 +2336,7 @@
       </c>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -2372,7 +2372,7 @@
       </c>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -2444,7 +2444,7 @@
       </c>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -2480,7 +2480,7 @@
       </c>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -2516,7 +2516,7 @@
       </c>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -2552,7 +2552,7 @@
       </c>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -2624,7 +2624,7 @@
       </c>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>17</v>
       </c>
@@ -2660,7 +2660,7 @@
       </c>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>17</v>
       </c>
@@ -2696,7 +2696,7 @@
       </c>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>17</v>
       </c>
@@ -2732,7 +2732,7 @@
       </c>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -2768,7 +2768,7 @@
       </c>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -2804,7 +2804,7 @@
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -2840,7 +2840,7 @@
       </c>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>17</v>
       </c>
@@ -2876,7 +2876,7 @@
       </c>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>17</v>
       </c>
@@ -2912,7 +2912,7 @@
       </c>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>17</v>
       </c>
@@ -2948,7 +2948,7 @@
       </c>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>17</v>
       </c>
@@ -2984,7 +2984,7 @@
       </c>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>17</v>
       </c>
@@ -3020,7 +3020,7 @@
       </c>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>17</v>
       </c>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>17</v>
       </c>
@@ -3092,7 +3092,7 @@
       </c>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>17</v>
       </c>
@@ -3128,7 +3128,7 @@
       </c>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>17</v>
       </c>
@@ -3164,7 +3164,7 @@
       </c>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>17</v>
       </c>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>17</v>
       </c>
@@ -3236,7 +3236,7 @@
       </c>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>17</v>
       </c>
@@ -3272,7 +3272,7 @@
       </c>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>17</v>
       </c>
@@ -3308,7 +3308,7 @@
       </c>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>17</v>
       </c>
@@ -3344,7 +3344,7 @@
       </c>
       <c r="L77" s="3"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>17</v>
       </c>
@@ -3380,7 +3380,7 @@
       </c>
       <c r="L78" s="3"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>17</v>
       </c>
@@ -3416,7 +3416,7 @@
       </c>
       <c r="L79" s="3"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>17</v>
       </c>
@@ -3452,7 +3452,7 @@
       </c>
       <c r="L80" s="3"/>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>17</v>
       </c>
@@ -3488,7 +3488,7 @@
       </c>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>17</v>
       </c>
@@ -3524,7 +3524,7 @@
       </c>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>17</v>
       </c>
@@ -3560,7 +3560,7 @@
       </c>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>17</v>
       </c>
@@ -3596,7 +3596,7 @@
       </c>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>17</v>
       </c>
@@ -3632,7 +3632,7 @@
       </c>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>17</v>
       </c>
@@ -3668,7 +3668,7 @@
       </c>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>17</v>
       </c>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>17</v>
       </c>
@@ -3740,7 +3740,7 @@
       </c>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>17</v>
       </c>
@@ -3776,7 +3776,7 @@
       </c>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>17</v>
       </c>
@@ -3812,7 +3812,7 @@
       </c>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>17</v>
       </c>
@@ -3848,7 +3848,7 @@
       </c>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>17</v>
       </c>
@@ -3884,7 +3884,7 @@
       </c>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>17</v>
       </c>
@@ -3920,7 +3920,7 @@
       </c>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>17</v>
       </c>
@@ -3956,7 +3956,7 @@
       </c>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>17</v>
       </c>
@@ -3992,7 +3992,7 @@
       </c>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>17</v>
       </c>
@@ -4028,7 +4028,7 @@
       </c>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>17</v>
       </c>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>17</v>
       </c>
@@ -4100,7 +4100,7 @@
       </c>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>17</v>
       </c>
@@ -4136,7 +4136,7 @@
       </c>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>17</v>
       </c>
@@ -4172,7 +4172,7 @@
       </c>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>17</v>
       </c>
@@ -4208,7 +4208,7 @@
       </c>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>17</v>
       </c>
@@ -4244,7 +4244,7 @@
       </c>
       <c r="L102" s="3"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>17</v>
       </c>
@@ -4280,7 +4280,7 @@
       </c>
       <c r="L103" s="3"/>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>17</v>
       </c>
@@ -4316,7 +4316,7 @@
       </c>
       <c r="L104" s="3"/>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>17</v>
       </c>
@@ -4352,7 +4352,7 @@
       </c>
       <c r="L105" s="3"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>17</v>
       </c>
@@ -4388,7 +4388,7 @@
       </c>
       <c r="L106" s="3"/>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>17</v>
       </c>
@@ -4424,7 +4424,7 @@
       </c>
       <c r="L107" s="3"/>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>17</v>
       </c>
@@ -4460,7 +4460,7 @@
       </c>
       <c r="L108" s="3"/>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>17</v>
       </c>
@@ -4496,7 +4496,7 @@
       </c>
       <c r="L109" s="3"/>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>17</v>
       </c>
@@ -4532,7 +4532,7 @@
       </c>
       <c r="L110" s="3"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>17</v>
       </c>
@@ -4568,7 +4568,7 @@
       </c>
       <c r="L111" s="3"/>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>17</v>
       </c>
@@ -4604,7 +4604,7 @@
       </c>
       <c r="L112" s="3"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>17</v>
       </c>
@@ -4640,7 +4640,7 @@
       </c>
       <c r="L113" s="3"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>17</v>
       </c>
@@ -4676,7 +4676,7 @@
       </c>
       <c r="L114" s="3"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>17</v>
       </c>
@@ -4712,7 +4712,7 @@
       </c>
       <c r="L115" s="3"/>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>17</v>
       </c>
@@ -4748,7 +4748,7 @@
       </c>
       <c r="L116" s="3"/>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>17</v>
       </c>
@@ -4784,7 +4784,7 @@
       </c>
       <c r="L117" s="3"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>17</v>
       </c>
@@ -4820,7 +4820,7 @@
       </c>
       <c r="L118" s="3"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>17</v>
       </c>
@@ -4856,7 +4856,7 @@
       </c>
       <c r="L119" s="3"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>17</v>
       </c>
@@ -4892,7 +4892,7 @@
       </c>
       <c r="L120" s="3"/>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>17</v>
       </c>
@@ -4928,7 +4928,7 @@
       </c>
       <c r="L121" s="3"/>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>17</v>
       </c>
@@ -4964,7 +4964,7 @@
       </c>
       <c r="L122" s="3"/>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>17</v>
       </c>
@@ -5000,7 +5000,7 @@
       </c>
       <c r="L123" s="3"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>17</v>
       </c>
@@ -30212,7 +30212,6 @@
   <autoFilter ref="A1:K843" xr:uid="{6938B3DE-259D-A443-B4D5-646CDAB1E554}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Australia"/>
         <filter val="Ireland"/>
       </filters>
     </filterColumn>
@@ -30225,8 +30224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F4AEBD6-B62D-F547-8B43-6D051A6DB9C3}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/cricket_stats.xlsx
+++ b/cricket_stats.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sandeepkumar/Documents/04_Learning &amp; Skills Improvement/MCS/Courses/CS416_DataVisualization/LAB/cricket-stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B093F4-9AAD-644A-AC65-ADE586F95F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B94E68-7FE9-8D45-8686-363C2D012277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="9660" windowWidth="28040" windowHeight="16580" activeTab="3" xr2:uid="{272A4FAE-3044-684E-B9DF-94C5C5EFD70B}"/>
+    <workbookView xWindow="1440" yWindow="6740" windowWidth="28040" windowHeight="16580" activeTab="2" xr2:uid="{272A4FAE-3044-684E-B9DF-94C5C5EFD70B}"/>
   </bookViews>
   <sheets>
     <sheet name="Test - matches" sheetId="1" r:id="rId1"/>
     <sheet name="Countries" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet18" sheetId="18" r:id="rId3"/>
-    <sheet name="Teams" sheetId="19" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="20" r:id="rId3"/>
+    <sheet name="Sheet18" sheetId="18" r:id="rId4"/>
+    <sheet name="Teams" sheetId="19" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3">Teams!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4">Teams!$A$1:$N$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Test - matches'!$A$1:$K$843</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="63">
   <si>
     <t>Mat</t>
   </si>
@@ -192,6 +193,45 @@
   <si>
     <t>Undecided</t>
   </si>
+  <si>
+    <t>"svg-bar-chart-Australia":</t>
+  </si>
+  <si>
+    <t>"svg-bar-chart-England":</t>
+  </si>
+  <si>
+    <t>"svg-bar-chart-WestIndies":</t>
+  </si>
+  <si>
+    <t>"svg-bar-chart-SouthAfrica":</t>
+  </si>
+  <si>
+    <t>"svg-bar-chart-India":</t>
+  </si>
+  <si>
+    <t>"svg-bar-chart-Pakistan":</t>
+  </si>
+  <si>
+    <t>"svg-bar-chart-NewZealand":</t>
+  </si>
+  <si>
+    <t>"svg-bar-chart-SriLanka":</t>
+  </si>
+  <si>
+    <t>"svg-bar-chart-Bangladesh":</t>
+  </si>
+  <si>
+    <t>"svg-bar-chart-Zimbabwe":</t>
+  </si>
+  <si>
+    <t>"svg-bar-chart-Afghanistan":</t>
+  </si>
+  <si>
+    <t>"svg-bar-chart-Ireland":</t>
+  </si>
+  <si>
+    <t xml:space="preserve">case </t>
+  </si>
 </sst>
 </file>
 
@@ -200,7 +240,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -227,6 +267,12 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF939293"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -248,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -259,6 +305,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -30235,7 +30282,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30866,6 +30913,120 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C579A2-8D59-574A-9F1C-B7243937A86D}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="34.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6A5B55-6A1D-AF4A-B4B6-FCFA468615FC}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -30885,11 +31046,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDFF6C1E-FE56-7A41-AF04-370809900BAB}">
   <dimension ref="A1:N713"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
@@ -30962,7 +31123,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <f>E2+F2</f>
+        <f t="shared" ref="G2:G65" si="0">E2+F2</f>
         <v>0</v>
       </c>
       <c r="H2" s="1">
@@ -31007,7 +31168,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <f>E3+F3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -31052,7 +31213,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <f>E4+F4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4" s="1">
@@ -31097,7 +31258,7 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <f>E5+F5</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H5" s="1">
@@ -31142,7 +31303,7 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <f>E6+F6</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -31187,7 +31348,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <f>E7+F7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H7" s="1">
@@ -31232,7 +31393,7 @@
         <v>2</v>
       </c>
       <c r="G8">
-        <f>E8+F8</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H8" s="1">
@@ -31277,7 +31438,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <f>E9+F9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H9" s="1">
@@ -31322,7 +31483,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <f>E10+F10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H10" s="1">
@@ -31367,7 +31528,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <f>E11+F11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H11" s="1">
@@ -31412,7 +31573,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <f>E12+F12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H12" s="1">
@@ -31457,7 +31618,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <f>E13+F13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H13" s="1">
@@ -31502,7 +31663,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <f>E14+F14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H14" s="1">
@@ -31547,7 +31708,7 @@
         <v>2</v>
       </c>
       <c r="G15">
-        <f>E15+F15</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H15" s="1">
@@ -31592,7 +31753,7 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <f>E16+F16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H16" s="1">
@@ -31637,7 +31798,7 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <f>E17+F17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H17" s="1">
@@ -31682,7 +31843,7 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <f>E18+F18</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H18" s="1">
@@ -31727,7 +31888,7 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <f>E19+F19</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H19" s="1">
@@ -31772,7 +31933,7 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <f>E20+F20</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H20" s="1" t="s">
@@ -31817,7 +31978,7 @@
         <v>4</v>
       </c>
       <c r="G21">
-        <f>E21+F21</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -31862,7 +32023,7 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <f>E22+F22</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H22" s="1">
@@ -31907,7 +32068,7 @@
         <v>3</v>
       </c>
       <c r="G23">
-        <f>E23+F23</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H23" s="1">
@@ -31952,7 +32113,7 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <f>E24+F24</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H24" s="1">
@@ -31997,7 +32158,7 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <f>E25+F25</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H25" s="1">
@@ -32042,7 +32203,7 @@
         <v>3</v>
       </c>
       <c r="G26">
-        <f>E26+F26</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H26" s="1">
@@ -32087,7 +32248,7 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <f>E27+F27</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -32132,7 +32293,7 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <f>E28+F28</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H28" s="1">
@@ -32177,7 +32338,7 @@
         <v>2</v>
       </c>
       <c r="G29">
-        <f>E29+F29</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H29" s="1">
@@ -32222,7 +32383,7 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <f>E30+F30</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H30" s="1" t="s">
@@ -32267,7 +32428,7 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <f>E31+F31</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H31" s="1">
@@ -32312,7 +32473,7 @@
         <v>3</v>
       </c>
       <c r="G32">
-        <f>E32+F32</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H32" s="1">
@@ -32357,7 +32518,7 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <f>E33+F33</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H33" s="1" t="s">
@@ -32402,7 +32563,7 @@
         <v>4</v>
       </c>
       <c r="G34">
-        <f>E34+F34</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H34" s="1" t="s">
@@ -32447,7 +32608,7 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <f>E35+F35</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H35" s="1" t="s">
@@ -32492,7 +32653,7 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <f>E36+F36</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H36" s="1">
@@ -32537,7 +32698,7 @@
         <v>4</v>
       </c>
       <c r="G37">
-        <f>E37+F37</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H37" s="1">
@@ -32582,7 +32743,7 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <f>E38+F38</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H38" s="1">
@@ -32627,7 +32788,7 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <f>E39+F39</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H39" s="1">
@@ -32672,7 +32833,7 @@
         <v>2</v>
       </c>
       <c r="G40">
-        <f>E40+F40</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H40" s="1">
@@ -32717,7 +32878,7 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <f>E41+F41</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H41" s="1">
@@ -32762,7 +32923,7 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <f>E42+F42</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H42" s="1">
@@ -32807,7 +32968,7 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <f>E43+F43</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H43" s="1">
@@ -32852,7 +33013,7 @@
         <v>2</v>
       </c>
       <c r="G44">
-        <f>E44+F44</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H44" s="1">
@@ -32897,7 +33058,7 @@
         <v>1</v>
       </c>
       <c r="G45">
-        <f>E45+F45</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H45" s="1" t="s">
@@ -32942,7 +33103,7 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <f>E46+F46</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H46" s="1">
@@ -32987,7 +33148,7 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <f>E47+F47</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H47" s="1" t="s">
@@ -33032,7 +33193,7 @@
         <v>2</v>
       </c>
       <c r="G48">
-        <f>E48+F48</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H48" s="1">
@@ -33077,7 +33238,7 @@
         <v>0</v>
       </c>
       <c r="G49">
-        <f>E49+F49</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H49" s="1" t="s">
@@ -33122,7 +33283,7 @@
         <v>3</v>
       </c>
       <c r="G50">
-        <f>E50+F50</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H50" s="1" t="s">
@@ -33167,7 +33328,7 @@
         <v>1</v>
       </c>
       <c r="G51">
-        <f>E51+F51</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H51" s="1" t="s">
@@ -33212,7 +33373,7 @@
         <v>0</v>
       </c>
       <c r="G52">
-        <f>E52+F52</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H52" s="1" t="s">
@@ -33257,7 +33418,7 @@
         <v>1</v>
       </c>
       <c r="G53">
-        <f>E53+F53</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H53" s="1" t="s">
@@ -33302,7 +33463,7 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <f>E54+F54</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H54" s="1">
@@ -33347,7 +33508,7 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <f>E55+F55</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H55" s="1">
@@ -33392,7 +33553,7 @@
         <v>5</v>
       </c>
       <c r="G56">
-        <f>E56+F56</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H56" s="1">
@@ -33437,7 +33598,7 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <f>E57+F57</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H57" s="1">
@@ -33482,7 +33643,7 @@
         <v>3</v>
       </c>
       <c r="G58">
-        <f>E58+F58</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H58" s="1">
@@ -33527,7 +33688,7 @@
         <v>3</v>
       </c>
       <c r="G59">
-        <f>E59+F59</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H59" s="1">
@@ -33572,7 +33733,7 @@
         <v>1</v>
       </c>
       <c r="G60">
-        <f>E60+F60</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H60" s="1" t="s">
@@ -33617,7 +33778,7 @@
         <v>1</v>
       </c>
       <c r="G61">
-        <f>E61+F61</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H61" s="1" t="s">
@@ -33662,7 +33823,7 @@
         <v>2</v>
       </c>
       <c r="G62">
-        <f>E62+F62</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H62" s="1">
@@ -33707,7 +33868,7 @@
         <v>2</v>
       </c>
       <c r="G63">
-        <f>E63+F63</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H63" s="1" t="s">
@@ -33752,7 +33913,7 @@
         <v>3</v>
       </c>
       <c r="G64">
-        <f>E64+F64</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H64" s="1">
@@ -33797,7 +33958,7 @@
         <v>1</v>
       </c>
       <c r="G65">
-        <f>E65+F65</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H65" s="1">
@@ -33842,7 +34003,7 @@
         <v>3</v>
       </c>
       <c r="G66">
-        <f>E66+F66</f>
+        <f t="shared" ref="G66:G129" si="1">E66+F66</f>
         <v>3</v>
       </c>
       <c r="H66" s="1" t="s">
@@ -33887,7 +34048,7 @@
         <v>9</v>
       </c>
       <c r="G67">
-        <f>E67+F67</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="H67" s="1">
@@ -33932,7 +34093,7 @@
         <v>4</v>
       </c>
       <c r="G68">
-        <f>E68+F68</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="H68" s="1">
@@ -33977,7 +34138,7 @@
         <v>1</v>
       </c>
       <c r="G69">
-        <f>E69+F69</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H69" s="1">
@@ -34022,7 +34183,7 @@
         <v>1</v>
       </c>
       <c r="G70">
-        <f>E70+F70</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H70" s="1">
@@ -34067,7 +34228,7 @@
         <v>3</v>
       </c>
       <c r="G71">
-        <f>E71+F71</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="H71" s="1">
@@ -34112,7 +34273,7 @@
         <v>2</v>
       </c>
       <c r="G72">
-        <f>E72+F72</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H72" s="1">
@@ -34157,7 +34318,7 @@
         <v>2</v>
       </c>
       <c r="G73">
-        <f>E73+F73</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H73" s="1">
@@ -34202,7 +34363,7 @@
         <v>2</v>
       </c>
       <c r="G74">
-        <f>E74+F74</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H74" s="1">
@@ -34247,7 +34408,7 @@
         <v>1</v>
       </c>
       <c r="G75">
-        <f>E75+F75</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H75" s="1">
@@ -34292,7 +34453,7 @@
         <v>3</v>
       </c>
       <c r="G76">
-        <f>E76+F76</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="H76" s="1" t="s">
@@ -34337,7 +34498,7 @@
         <v>3</v>
       </c>
       <c r="G77">
-        <f>E77+F77</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="H77" s="1">
@@ -34382,7 +34543,7 @@
         <v>3</v>
       </c>
       <c r="G78">
-        <f>E78+F78</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="H78" s="1">
@@ -34427,7 +34588,7 @@
         <v>1</v>
       </c>
       <c r="G79">
-        <f>E79+F79</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H79" s="1" t="s">
@@ -34472,7 +34633,7 @@
         <v>3</v>
       </c>
       <c r="G80">
-        <f>E80+F80</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="H80" s="1">
@@ -34517,7 +34678,7 @@
         <v>1</v>
       </c>
       <c r="G81">
-        <f>E81+F81</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H81" s="1">
@@ -34562,7 +34723,7 @@
         <v>5</v>
       </c>
       <c r="G82">
-        <f>E82+F82</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="H82" s="1">
@@ -34607,7 +34768,7 @@
         <v>4</v>
       </c>
       <c r="G83">
-        <f>E83+F83</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="H83" s="1">
@@ -34652,7 +34813,7 @@
         <v>3</v>
       </c>
       <c r="G84">
-        <f>E84+F84</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="H84" s="1">
@@ -34697,7 +34858,7 @@
         <v>3</v>
       </c>
       <c r="G85">
-        <f>E85+F85</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="H85" s="1">
@@ -34742,7 +34903,7 @@
         <v>4</v>
       </c>
       <c r="G86">
-        <f>E86+F86</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="H86" s="1" t="s">
@@ -34787,7 +34948,7 @@
         <v>3</v>
       </c>
       <c r="G87">
-        <f>E87+F87</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="H87" s="1">
@@ -34832,7 +34993,7 @@
         <v>4</v>
       </c>
       <c r="G88">
-        <f>E88+F88</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="H88" s="1">
@@ -34877,7 +35038,7 @@
         <v>7</v>
       </c>
       <c r="G89">
-        <f>E89+F89</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="H89" s="1">
@@ -34922,7 +35083,7 @@
         <v>2</v>
       </c>
       <c r="G90">
-        <f>E90+F90</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H90" s="1" t="s">
@@ -34967,7 +35128,7 @@
         <v>3</v>
       </c>
       <c r="G91">
-        <f>E91+F91</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="H91" s="1">
@@ -35012,7 +35173,7 @@
         <v>5</v>
       </c>
       <c r="G92">
-        <f>E92+F92</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="H92" s="1" t="s">
@@ -35057,7 +35218,7 @@
         <v>2</v>
       </c>
       <c r="G93">
-        <f>E93+F93</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H93" s="1">
@@ -35102,7 +35263,7 @@
         <v>4</v>
       </c>
       <c r="G94">
-        <f>E94+F94</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="H94" s="1">
@@ -35147,7 +35308,7 @@
         <v>4</v>
       </c>
       <c r="G95">
-        <f>E95+F95</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="H95" s="1" t="s">
@@ -35192,7 +35353,7 @@
         <v>5</v>
       </c>
       <c r="G96">
-        <f>E96+F96</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="H96" s="1">
@@ -35237,7 +35398,7 @@
         <v>3</v>
       </c>
       <c r="G97">
-        <f>E97+F97</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="H97" s="1">
@@ -35282,7 +35443,7 @@
         <v>2</v>
       </c>
       <c r="G98">
-        <f>E98+F98</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H98" s="1">
@@ -35327,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="G99">
-        <f>E99+F99</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H99" s="1">
@@ -35372,7 +35533,7 @@
         <v>3</v>
       </c>
       <c r="G100">
-        <f>E100+F100</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="H100" s="1">
@@ -35417,7 +35578,7 @@
         <v>4</v>
       </c>
       <c r="G101">
-        <f>E101+F101</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="H101" s="1">
@@ -35462,7 +35623,7 @@
         <v>2</v>
       </c>
       <c r="G102">
-        <f>E102+F102</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H102" s="1">
@@ -35507,7 +35668,7 @@
         <v>0</v>
       </c>
       <c r="G103">
-        <f>E103+F103</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H103" s="1" t="s">
@@ -35552,7 +35713,7 @@
         <v>3</v>
       </c>
       <c r="G104">
-        <f>E104+F104</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="H104" s="1">
@@ -35597,7 +35758,7 @@
         <v>0</v>
       </c>
       <c r="G105">
-        <f>E105+F105</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H105" s="1">
@@ -35642,7 +35803,7 @@
         <v>1</v>
       </c>
       <c r="G106">
-        <f>E106+F106</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H106" s="1">
@@ -35687,7 +35848,7 @@
         <v>3</v>
       </c>
       <c r="G107">
-        <f>E107+F107</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="H107" s="1">
@@ -35732,7 +35893,7 @@
         <v>4</v>
       </c>
       <c r="G108">
-        <f>E108+F108</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="H108" s="1">
@@ -35777,7 +35938,7 @@
         <v>0</v>
       </c>
       <c r="G109">
-        <f>E109+F109</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H109" s="1" t="s">
@@ -35822,7 +35983,7 @@
         <v>0</v>
       </c>
       <c r="G110">
-        <f>E110+F110</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H110" s="1" t="s">
@@ -35867,7 +36028,7 @@
         <v>4</v>
       </c>
       <c r="G111">
-        <f>E111+F111</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="H111" s="1">
@@ -35912,7 +36073,7 @@
         <v>3</v>
       </c>
       <c r="G112">
-        <f>E112+F112</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="H112" s="1">
@@ -35957,7 +36118,7 @@
         <v>1</v>
       </c>
       <c r="G113">
-        <f>E113+F113</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H113" s="1">
@@ -36002,7 +36163,7 @@
         <v>2</v>
       </c>
       <c r="G114">
-        <f>E114+F114</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H114" s="1">
@@ -36047,7 +36208,7 @@
         <v>3</v>
       </c>
       <c r="G115">
-        <f>E115+F115</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="H115" s="1">
@@ -36092,7 +36253,7 @@
         <v>2</v>
       </c>
       <c r="G116">
-        <f>E116+F116</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H116" s="1">
@@ -36137,7 +36298,7 @@
         <v>1</v>
       </c>
       <c r="G117">
-        <f>E117+F117</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H117" s="1">
@@ -36182,7 +36343,7 @@
         <v>2</v>
       </c>
       <c r="G118">
-        <f>E118+F118</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H118" s="1">
@@ -36227,7 +36388,7 @@
         <v>1</v>
       </c>
       <c r="G119">
-        <f>E119+F119</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H119" s="1">
@@ -36272,7 +36433,7 @@
         <v>2</v>
       </c>
       <c r="G120">
-        <f>E120+F120</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H120" s="1">
@@ -36317,7 +36478,7 @@
         <v>1</v>
       </c>
       <c r="G121">
-        <f>E121+F121</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H121" s="1">
@@ -36362,7 +36523,7 @@
         <v>2</v>
       </c>
       <c r="G122">
-        <f>E122+F122</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H122" s="1">
@@ -36407,7 +36568,7 @@
         <v>0</v>
       </c>
       <c r="G123">
-        <f>E123+F123</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H123" s="1">
@@ -36452,7 +36613,7 @@
         <v>1</v>
       </c>
       <c r="G124">
-        <f>E124+F124</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H124" s="1">
@@ -36497,7 +36658,7 @@
         <v>0</v>
       </c>
       <c r="G125">
-        <f>E125+F125</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H125" s="1">
@@ -36542,7 +36703,7 @@
         <v>0</v>
       </c>
       <c r="G126">
-        <f>E126+F126</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H126" s="1">
@@ -36587,7 +36748,7 @@
         <v>0</v>
       </c>
       <c r="G127">
-        <f>E127+F127</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H127" s="1" t="s">
@@ -36632,7 +36793,7 @@
         <v>1</v>
       </c>
       <c r="G128">
-        <f>E128+F128</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H128" s="1">
@@ -36677,7 +36838,7 @@
         <v>1</v>
       </c>
       <c r="G129">
-        <f>E129+F129</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H129" s="1">
@@ -36722,7 +36883,7 @@
         <v>0</v>
       </c>
       <c r="G130">
-        <f>E130+F130</f>
+        <f t="shared" ref="G130:G193" si="2">E130+F130</f>
         <v>0</v>
       </c>
       <c r="H130" s="1">
@@ -36767,7 +36928,7 @@
         <v>2</v>
       </c>
       <c r="G131">
-        <f>E131+F131</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H131" s="1" t="s">
@@ -36812,7 +36973,7 @@
         <v>0</v>
       </c>
       <c r="G132">
-        <f>E132+F132</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H132" s="1">
@@ -36857,7 +37018,7 @@
         <v>0</v>
       </c>
       <c r="G133">
-        <f>E133+F133</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H133" s="1" t="s">
@@ -36902,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="G134">
-        <f>E134+F134</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H134" s="1" t="s">
@@ -36947,7 +37108,7 @@
         <v>0</v>
       </c>
       <c r="G135">
-        <f>E135+F135</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H135" s="1">
@@ -36992,7 +37153,7 @@
         <v>0</v>
       </c>
       <c r="G136">
-        <f>E136+F136</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H136" s="1" t="s">
@@ -37037,7 +37198,7 @@
         <v>0</v>
       </c>
       <c r="G137">
-        <f>E137+F137</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H137" s="1" t="s">
@@ -37082,7 +37243,7 @@
         <v>0</v>
       </c>
       <c r="G138">
-        <f>E138+F138</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H138" s="1">
@@ -37127,7 +37288,7 @@
         <v>2</v>
       </c>
       <c r="G139">
-        <f>E139+F139</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H139" s="1" t="s">
@@ -37172,7 +37333,7 @@
         <v>0</v>
       </c>
       <c r="G140">
-        <f>E140+F140</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H140" s="1" t="s">
@@ -37217,7 +37378,7 @@
         <v>0</v>
       </c>
       <c r="G141">
-        <f>E141+F141</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H141" s="1">
@@ -37262,7 +37423,7 @@
         <v>0</v>
       </c>
       <c r="G142">
-        <f>E142+F142</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H142" s="1">
@@ -37307,7 +37468,7 @@
         <v>0</v>
       </c>
       <c r="G143">
-        <f>E143+F143</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H143" s="1" t="s">
@@ -37352,7 +37513,7 @@
         <v>0</v>
       </c>
       <c r="G144">
-        <f>E144+F144</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H144" s="1">
@@ -37397,7 +37558,7 @@
         <v>4</v>
       </c>
       <c r="G145">
-        <f>E145+F145</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="H145" s="1">
@@ -37442,7 +37603,7 @@
         <v>0</v>
       </c>
       <c r="G146">
-        <f>E146+F146</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H146" s="1" t="s">
@@ -37487,7 +37648,7 @@
         <v>2</v>
       </c>
       <c r="G147">
-        <f>E147+F147</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H147" s="1">
@@ -37532,7 +37693,7 @@
         <v>0</v>
       </c>
       <c r="G148">
-        <f>E148+F148</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H148" s="1" t="s">
@@ -37577,7 +37738,7 @@
         <v>0</v>
       </c>
       <c r="G149">
-        <f>E149+F149</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H149" s="1">
@@ -37622,7 +37783,7 @@
         <v>3</v>
       </c>
       <c r="G150">
-        <f>E150+F150</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H150" s="1" t="s">
@@ -37667,7 +37828,7 @@
         <v>0</v>
       </c>
       <c r="G151">
-        <f>E151+F151</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H151" s="1">
@@ -37712,7 +37873,7 @@
         <v>2</v>
       </c>
       <c r="G152">
-        <f>E152+F152</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H152" s="1">
@@ -37757,7 +37918,7 @@
         <v>0</v>
       </c>
       <c r="G153">
-        <f>E153+F153</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H153" s="1">
@@ -37802,7 +37963,7 @@
         <v>2</v>
       </c>
       <c r="G154">
-        <f>E154+F154</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H154" s="1">
@@ -37847,7 +38008,7 @@
         <v>0</v>
       </c>
       <c r="G155">
-        <f>E155+F155</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H155" s="1">
@@ -37892,7 +38053,7 @@
         <v>0</v>
       </c>
       <c r="G156">
-        <f>E156+F156</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H156" s="1">
@@ -37937,7 +38098,7 @@
         <v>2</v>
       </c>
       <c r="G157">
-        <f>E157+F157</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H157" s="1" t="s">
@@ -37982,7 +38143,7 @@
         <v>0</v>
       </c>
       <c r="G158">
-        <f>E158+F158</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H158" s="1" t="s">
@@ -38027,7 +38188,7 @@
         <v>1</v>
       </c>
       <c r="G159">
-        <f>E159+F159</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H159" s="1" t="s">
@@ -38072,7 +38233,7 @@
         <v>0</v>
       </c>
       <c r="G160">
-        <f>E160+F160</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H160" s="1">
@@ -38117,7 +38278,7 @@
         <v>2</v>
       </c>
       <c r="G161">
-        <f>E161+F161</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H161" s="1">
@@ -38162,7 +38323,7 @@
         <v>0</v>
       </c>
       <c r="G162">
-        <f>E162+F162</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H162" s="1">
@@ -38207,7 +38368,7 @@
         <v>2</v>
       </c>
       <c r="G163">
-        <f>E163+F163</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H163" s="1" t="s">
@@ -38252,7 +38413,7 @@
         <v>2</v>
       </c>
       <c r="G164">
-        <f>E164+F164</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H164" s="1">
@@ -38297,7 +38458,7 @@
         <v>0</v>
       </c>
       <c r="G165">
-        <f>E165+F165</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H165" s="1">
@@ -38342,7 +38503,7 @@
         <v>4</v>
       </c>
       <c r="G166">
-        <f>E166+F166</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="H166" s="1" t="s">
@@ -38387,7 +38548,7 @@
         <v>0</v>
       </c>
       <c r="G167">
-        <f>E167+F167</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H167" s="1" t="s">
@@ -38432,7 +38593,7 @@
         <v>1</v>
       </c>
       <c r="G168">
-        <f>E168+F168</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H168" s="1">
@@ -38477,7 +38638,7 @@
         <v>3</v>
       </c>
       <c r="G169">
-        <f>E169+F169</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H169" s="1">
@@ -38522,7 +38683,7 @@
         <v>7</v>
       </c>
       <c r="G170">
-        <f>E170+F170</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="H170" s="1">
@@ -38567,7 +38728,7 @@
         <v>6</v>
       </c>
       <c r="G171">
-        <f>E171+F171</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="H171" s="1" t="s">
@@ -38612,7 +38773,7 @@
         <v>0</v>
       </c>
       <c r="G172">
-        <f>E172+F172</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H172" s="1">
@@ -38657,7 +38818,7 @@
         <v>3</v>
       </c>
       <c r="G173">
-        <f>E173+F173</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H173" s="1" t="s">
@@ -38702,7 +38863,7 @@
         <v>3</v>
       </c>
       <c r="G174">
-        <f>E174+F174</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H174" s="1">
@@ -38747,7 +38908,7 @@
         <v>5</v>
       </c>
       <c r="G175">
-        <f>E175+F175</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="H175" s="1">
@@ -38792,7 +38953,7 @@
         <v>1</v>
       </c>
       <c r="G176">
-        <f>E176+F176</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H176" s="1" t="s">
@@ -38837,7 +38998,7 @@
         <v>2</v>
       </c>
       <c r="G177">
-        <f>E177+F177</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H177" s="1">
@@ -38882,7 +39043,7 @@
         <v>4</v>
       </c>
       <c r="G178">
-        <f>E178+F178</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="H178" s="1">
@@ -38927,7 +39088,7 @@
         <v>4</v>
       </c>
       <c r="G179">
-        <f>E179+F179</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="H179" s="1" t="s">
@@ -38972,7 +39133,7 @@
         <v>2</v>
       </c>
       <c r="G180">
-        <f>E180+F180</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H180" s="1">
@@ -39017,7 +39178,7 @@
         <v>5</v>
       </c>
       <c r="G181">
-        <f>E181+F181</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="H181" s="1">
@@ -39062,7 +39223,7 @@
         <v>4</v>
       </c>
       <c r="G182">
-        <f>E182+F182</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="H182" s="1">
@@ -39107,7 +39268,7 @@
         <v>6</v>
       </c>
       <c r="G183">
-        <f>E183+F183</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="H183" s="1" t="s">
@@ -39152,7 +39313,7 @@
         <v>0</v>
       </c>
       <c r="G184">
-        <f>E184+F184</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H184" s="1">
@@ -39197,7 +39358,7 @@
         <v>5</v>
       </c>
       <c r="G185">
-        <f>E185+F185</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="H185" s="1">
@@ -39242,7 +39403,7 @@
         <v>1</v>
       </c>
       <c r="G186">
-        <f>E186+F186</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H186" s="1">
@@ -39287,7 +39448,7 @@
         <v>4</v>
       </c>
       <c r="G187">
-        <f>E187+F187</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="H187" s="1" t="s">
@@ -39332,7 +39493,7 @@
         <v>3</v>
       </c>
       <c r="G188">
-        <f>E188+F188</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H188" s="1">
@@ -39377,7 +39538,7 @@
         <v>1</v>
       </c>
       <c r="G189">
-        <f>E189+F189</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H189" s="1">
@@ -39422,7 +39583,7 @@
         <v>2</v>
       </c>
       <c r="G190">
-        <f>E190+F190</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H190" s="1">
@@ -39467,7 +39628,7 @@
         <v>3</v>
       </c>
       <c r="G191">
-        <f>E191+F191</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H191" s="1">
@@ -39512,7 +39673,7 @@
         <v>1</v>
       </c>
       <c r="G192">
-        <f>E192+F192</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H192" s="1">
@@ -39557,7 +39718,7 @@
         <v>2</v>
       </c>
       <c r="G193">
-        <f>E193+F193</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H193" s="1">
@@ -39602,7 +39763,7 @@
         <v>6</v>
       </c>
       <c r="G194">
-        <f>E194+F194</f>
+        <f t="shared" ref="G194:G257" si="3">E194+F194</f>
         <v>6</v>
       </c>
       <c r="H194" s="1" t="s">
@@ -39647,7 +39808,7 @@
         <v>5</v>
       </c>
       <c r="G195">
-        <f>E195+F195</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="H195" s="1">
@@ -39692,7 +39853,7 @@
         <v>4</v>
       </c>
       <c r="G196">
-        <f>E196+F196</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="H196" s="1">
@@ -39737,7 +39898,7 @@
         <v>3</v>
       </c>
       <c r="G197">
-        <f>E197+F197</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="H197" s="1">
@@ -39782,7 +39943,7 @@
         <v>10</v>
       </c>
       <c r="G198">
-        <f>E198+F198</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="H198" s="1">
@@ -39827,7 +39988,7 @@
         <v>7</v>
       </c>
       <c r="G199">
-        <f>E199+F199</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="H199" s="1">
@@ -39872,7 +40033,7 @@
         <v>5</v>
       </c>
       <c r="G200">
-        <f>E200+F200</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="H200" s="1">
@@ -39917,7 +40078,7 @@
         <v>1</v>
       </c>
       <c r="G201">
-        <f>E201+F201</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H201" s="1" t="s">
@@ -39962,7 +40123,7 @@
         <v>7</v>
       </c>
       <c r="G202">
-        <f>E202+F202</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="H202" s="1">
@@ -40007,7 +40168,7 @@
         <v>5</v>
       </c>
       <c r="G203">
-        <f>E203+F203</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="H203" s="1" t="s">
@@ -40052,7 +40213,7 @@
         <v>2</v>
       </c>
       <c r="G204">
-        <f>E204+F204</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H204" s="1">
@@ -40097,7 +40258,7 @@
         <v>7</v>
       </c>
       <c r="G205">
-        <f>E205+F205</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="H205" s="1">
@@ -40142,7 +40303,7 @@
         <v>1</v>
       </c>
       <c r="G206">
-        <f>E206+F206</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H206" s="1">
@@ -40187,7 +40348,7 @@
         <v>7</v>
       </c>
       <c r="G207">
-        <f>E207+F207</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="H207" s="1">
@@ -40232,7 +40393,7 @@
         <v>7</v>
       </c>
       <c r="G208">
-        <f>E208+F208</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="H208" s="1">
@@ -40277,7 +40438,7 @@
         <v>4</v>
       </c>
       <c r="G209">
-        <f>E209+F209</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="H209" s="1">
@@ -40322,7 +40483,7 @@
         <v>2</v>
       </c>
       <c r="G210">
-        <f>E210+F210</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H210" s="1">
@@ -40367,7 +40528,7 @@
         <v>4</v>
       </c>
       <c r="G211">
-        <f>E211+F211</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="H211" s="1">
@@ -40412,7 +40573,7 @@
         <v>4</v>
       </c>
       <c r="G212">
-        <f>E212+F212</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="H212" s="1">
@@ -40457,7 +40618,7 @@
         <v>3</v>
       </c>
       <c r="G213">
-        <f>E213+F213</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="H213" s="1">
@@ -40502,7 +40663,7 @@
         <v>5</v>
       </c>
       <c r="G214">
-        <f>E214+F214</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="H214" s="1">
@@ -40547,7 +40708,7 @@
         <v>6</v>
       </c>
       <c r="G215">
-        <f>E215+F215</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="H215" s="1">
@@ -40592,7 +40753,7 @@
         <v>6</v>
       </c>
       <c r="G216">
-        <f>E216+F216</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="H216" s="1">
@@ -40637,7 +40798,7 @@
         <v>1</v>
       </c>
       <c r="G217">
-        <f>E217+F217</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H217" s="1">
@@ -40682,7 +40843,7 @@
         <v>6</v>
       </c>
       <c r="G218">
-        <f>E218+F218</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="H218" s="1">
@@ -40727,7 +40888,7 @@
         <v>3</v>
       </c>
       <c r="G219">
-        <f>E219+F219</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="H219" s="1">
@@ -40772,7 +40933,7 @@
         <v>5</v>
       </c>
       <c r="G220">
-        <f>E220+F220</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="H220" s="1">
@@ -40817,7 +40978,7 @@
         <v>6</v>
       </c>
       <c r="G221">
-        <f>E221+F221</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="H221" s="1">
@@ -40862,7 +41023,7 @@
         <v>5</v>
       </c>
       <c r="G222">
-        <f>E222+F222</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="H222" s="1">
@@ -40907,7 +41068,7 @@
         <v>2</v>
       </c>
       <c r="G223">
-        <f>E223+F223</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H223" s="1">
@@ -40952,7 +41113,7 @@
         <v>5</v>
       </c>
       <c r="G224">
-        <f>E224+F224</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="H224" s="1">
@@ -40997,7 +41158,7 @@
         <v>3</v>
       </c>
       <c r="G225">
-        <f>E225+F225</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="H225" s="1">
@@ -41042,7 +41203,7 @@
         <v>3</v>
       </c>
       <c r="G226">
-        <f>E226+F226</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="H226" s="1">
@@ -41087,7 +41248,7 @@
         <v>1</v>
       </c>
       <c r="G227">
-        <f>E227+F227</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H227" s="1">
@@ -41132,7 +41293,7 @@
         <v>4</v>
       </c>
       <c r="G228">
-        <f>E228+F228</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="H228" s="1">
@@ -41177,7 +41338,7 @@
         <v>7</v>
       </c>
       <c r="G229">
-        <f>E229+F229</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="H229" s="1">
@@ -41222,7 +41383,7 @@
         <v>5</v>
       </c>
       <c r="G230">
-        <f>E230+F230</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="H230" s="1">
@@ -41267,7 +41428,7 @@
         <v>2</v>
       </c>
       <c r="G231">
-        <f>E231+F231</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H231" s="1">
@@ -41312,7 +41473,7 @@
         <v>5</v>
       </c>
       <c r="G232">
-        <f>E232+F232</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="H232" s="1">
@@ -41357,7 +41518,7 @@
         <v>3</v>
       </c>
       <c r="G233">
-        <f>E233+F233</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="H233" s="1">
@@ -41402,7 +41563,7 @@
         <v>4</v>
       </c>
       <c r="G234">
-        <f>E234+F234</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="H234" s="1">
@@ -41447,7 +41608,7 @@
         <v>2</v>
       </c>
       <c r="G235">
-        <f>E235+F235</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H235" s="1">
@@ -41492,7 +41653,7 @@
         <v>4</v>
       </c>
       <c r="G236">
-        <f>E236+F236</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="H236" s="1">
@@ -41537,7 +41698,7 @@
         <v>3</v>
       </c>
       <c r="G237">
-        <f>E237+F237</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="H237" s="1">
@@ -41582,7 +41743,7 @@
         <v>2</v>
       </c>
       <c r="G238">
-        <f>E238+F238</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H238" s="1" t="s">
@@ -41627,7 +41788,7 @@
         <v>4</v>
       </c>
       <c r="G239">
-        <f>E239+F239</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="H239" s="1">
@@ -41672,7 +41833,7 @@
         <v>3</v>
       </c>
       <c r="G240">
-        <f>E240+F240</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="H240" s="1">
@@ -41717,7 +41878,7 @@
         <v>5</v>
       </c>
       <c r="G241">
-        <f>E241+F241</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="H241" s="1">
@@ -41762,7 +41923,7 @@
         <v>3</v>
       </c>
       <c r="G242">
-        <f>E242+F242</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="H242" s="1">
@@ -41807,7 +41968,7 @@
         <v>7</v>
       </c>
       <c r="G243">
-        <f>E243+F243</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="H243" s="1">
@@ -41852,7 +42013,7 @@
         <v>2</v>
       </c>
       <c r="G244">
-        <f>E244+F244</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H244" s="1">
@@ -41897,7 +42058,7 @@
         <v>2</v>
       </c>
       <c r="G245">
-        <f>E245+F245</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H245" s="1" t="s">
@@ -41942,7 +42103,7 @@
         <v>3</v>
       </c>
       <c r="G246">
-        <f>E246+F246</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="H246" s="1">
@@ -41987,7 +42148,7 @@
         <v>5</v>
       </c>
       <c r="G247">
-        <f>E247+F247</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="H247" s="1">
@@ -42032,7 +42193,7 @@
         <v>2</v>
       </c>
       <c r="G248">
-        <f>E248+F248</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H248" s="1">
@@ -42077,7 +42238,7 @@
         <v>2</v>
       </c>
       <c r="G249">
-        <f>E249+F249</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H249" s="1">
@@ -42122,7 +42283,7 @@
         <v>3</v>
       </c>
       <c r="G250">
-        <f>E250+F250</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="H250" s="1">
@@ -42167,7 +42328,7 @@
         <v>1</v>
       </c>
       <c r="G251">
-        <f>E251+F251</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H251" s="1">
@@ -42212,7 +42373,7 @@
         <v>1</v>
       </c>
       <c r="G252">
-        <f>E252+F252</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H252" s="1">
@@ -42257,7 +42418,7 @@
         <v>2</v>
       </c>
       <c r="G253">
-        <f>E253+F253</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H253" s="1">
@@ -42302,7 +42463,7 @@
         <v>2</v>
       </c>
       <c r="G254">
-        <f>E254+F254</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H254" s="1">
@@ -42347,7 +42508,7 @@
         <v>1</v>
       </c>
       <c r="G255">
-        <f>E255+F255</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H255" s="1">
@@ -42392,7 +42553,7 @@
         <v>0</v>
       </c>
       <c r="G256">
-        <f>E256+F256</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H256">
@@ -42437,7 +42598,7 @@
         <v>0</v>
       </c>
       <c r="G257">
-        <f>E257+F257</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H257">
@@ -42482,7 +42643,7 @@
         <v>0</v>
       </c>
       <c r="G258">
-        <f>E258+F258</f>
+        <f t="shared" ref="G258:G321" si="4">E258+F258</f>
         <v>0</v>
       </c>
       <c r="H258">
@@ -42527,7 +42688,7 @@
         <v>0</v>
       </c>
       <c r="G259">
-        <f>E259+F259</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H259">
@@ -42572,7 +42733,7 @@
         <v>1</v>
       </c>
       <c r="G260">
-        <f>E260+F260</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H260">
@@ -42617,7 +42778,7 @@
         <v>0</v>
       </c>
       <c r="G261">
-        <f>E261+F261</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H261">
@@ -42662,7 +42823,7 @@
         <v>2</v>
       </c>
       <c r="G262">
-        <f>E262+F262</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="H262">
@@ -42707,7 +42868,7 @@
         <v>0</v>
       </c>
       <c r="G263">
-        <f>E263+F263</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H263">
@@ -42752,7 +42913,7 @@
         <v>0</v>
       </c>
       <c r="G264">
-        <f>E264+F264</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H264">
@@ -42797,7 +42958,7 @@
         <v>1</v>
       </c>
       <c r="G265">
-        <f>E265+F265</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H265">
@@ -42842,7 +43003,7 @@
         <v>0</v>
       </c>
       <c r="G266">
-        <f>E266+F266</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H266">
@@ -42887,7 +43048,7 @@
         <v>1</v>
       </c>
       <c r="G267">
-        <f>E267+F267</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H267">
@@ -42932,7 +43093,7 @@
         <v>2</v>
       </c>
       <c r="G268">
-        <f>E268+F268</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="H268">
@@ -42977,7 +43138,7 @@
         <v>0</v>
       </c>
       <c r="G269">
-        <f>E269+F269</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H269" t="s">
@@ -43022,7 +43183,7 @@
         <v>2</v>
       </c>
       <c r="G270">
-        <f>E270+F270</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="H270">
@@ -43067,7 +43228,7 @@
         <v>2</v>
       </c>
       <c r="G271">
-        <f>E271+F271</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="H271">
@@ -43112,7 +43273,7 @@
         <v>0</v>
       </c>
       <c r="G272">
-        <f>E272+F272</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H272">
@@ -43157,7 +43318,7 @@
         <v>1</v>
       </c>
       <c r="G273">
-        <f>E273+F273</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H273" t="s">
@@ -43202,7 +43363,7 @@
         <v>3</v>
       </c>
       <c r="G274">
-        <f>E274+F274</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="H274">
@@ -43247,7 +43408,7 @@
         <v>0</v>
       </c>
       <c r="G275">
-        <f>E275+F275</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H275" t="s">
@@ -43292,7 +43453,7 @@
         <v>4</v>
       </c>
       <c r="G276">
-        <f>E276+F276</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="H276">
@@ -43337,7 +43498,7 @@
         <v>0</v>
       </c>
       <c r="G277">
-        <f>E277+F277</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H277">
@@ -43382,7 +43543,7 @@
         <v>5</v>
       </c>
       <c r="G278">
-        <f>E278+F278</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="H278">
@@ -43427,7 +43588,7 @@
         <v>0</v>
       </c>
       <c r="G279">
-        <f>E279+F279</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H279">
@@ -43472,7 +43633,7 @@
         <v>2</v>
       </c>
       <c r="G280">
-        <f>E280+F280</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="H280">
@@ -43517,7 +43678,7 @@
         <v>2</v>
       </c>
       <c r="G281">
-        <f>E281+F281</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="H281">
@@ -43562,7 +43723,7 @@
         <v>2</v>
       </c>
       <c r="G282">
-        <f>E282+F282</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="H282">
@@ -43607,7 +43768,7 @@
         <v>1</v>
       </c>
       <c r="G283">
-        <f>E283+F283</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H283">
@@ -43652,7 +43813,7 @@
         <v>2</v>
       </c>
       <c r="G284">
-        <f>E284+F284</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="H284">
@@ -43697,7 +43858,7 @@
         <v>1</v>
       </c>
       <c r="G285">
-        <f>E285+F285</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H285">
@@ -43742,7 +43903,7 @@
         <v>1</v>
       </c>
       <c r="G286">
-        <f>E286+F286</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H286">
@@ -43787,7 +43948,7 @@
         <v>0</v>
       </c>
       <c r="G287">
-        <f>E287+F287</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H287">
@@ -43832,7 +43993,7 @@
         <v>2</v>
       </c>
       <c r="G288">
-        <f>E288+F288</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="H288">
@@ -43877,7 +44038,7 @@
         <v>1</v>
       </c>
       <c r="G289">
-        <f>E289+F289</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H289" t="s">
@@ -43922,7 +44083,7 @@
         <v>0</v>
       </c>
       <c r="G290">
-        <f>E290+F290</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H290">
@@ -43967,7 +44128,7 @@
         <v>0</v>
       </c>
       <c r="G291">
-        <f>E291+F291</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H291">
@@ -44012,7 +44173,7 @@
         <v>2</v>
       </c>
       <c r="G292">
-        <f>E292+F292</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="H292">
@@ -44057,7 +44218,7 @@
         <v>1</v>
       </c>
       <c r="G293">
-        <f>E293+F293</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H293">
@@ -44102,7 +44263,7 @@
         <v>2</v>
       </c>
       <c r="G294">
-        <f>E294+F294</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="H294">
@@ -44147,7 +44308,7 @@
         <v>1</v>
       </c>
       <c r="G295">
-        <f>E295+F295</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H295" t="s">
@@ -44192,7 +44353,7 @@
         <v>0</v>
       </c>
       <c r="G296">
-        <f>E296+F296</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H296">
@@ -44237,7 +44398,7 @@
         <v>1</v>
       </c>
       <c r="G297">
-        <f>E297+F297</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H297">
@@ -44282,7 +44443,7 @@
         <v>6</v>
       </c>
       <c r="G298">
-        <f>E298+F298</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="H298">
@@ -44327,7 +44488,7 @@
         <v>5</v>
       </c>
       <c r="G299">
-        <f>E299+F299</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="H299" t="s">
@@ -44372,7 +44533,7 @@
         <v>0</v>
       </c>
       <c r="G300">
-        <f>E300+F300</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H300">
@@ -44417,7 +44578,7 @@
         <v>1</v>
       </c>
       <c r="G301">
-        <f>E301+F301</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H301" t="s">
@@ -44462,7 +44623,7 @@
         <v>0</v>
       </c>
       <c r="G302">
-        <f>E302+F302</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H302" t="s">
@@ -44507,7 +44668,7 @@
         <v>2</v>
       </c>
       <c r="G303">
-        <f>E303+F303</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="H303">
@@ -44552,7 +44713,7 @@
         <v>4</v>
       </c>
       <c r="G304">
-        <f>E304+F304</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="H304" t="s">
@@ -44597,7 +44758,7 @@
         <v>2</v>
       </c>
       <c r="G305">
-        <f>E305+F305</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="H305">
@@ -44642,7 +44803,7 @@
         <v>4</v>
       </c>
       <c r="G306">
-        <f>E306+F306</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="H306" t="s">
@@ -44687,7 +44848,7 @@
         <v>0</v>
       </c>
       <c r="G307">
-        <f>E307+F307</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H307">
@@ -44732,7 +44893,7 @@
         <v>4</v>
       </c>
       <c r="G308">
-        <f>E308+F308</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="H308">
@@ -44777,7 +44938,7 @@
         <v>4</v>
       </c>
       <c r="G309">
-        <f>E309+F309</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="H309">
@@ -44822,7 +44983,7 @@
         <v>4</v>
       </c>
       <c r="G310">
-        <f>E310+F310</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="H310" t="s">
@@ -44867,7 +45028,7 @@
         <v>3</v>
       </c>
       <c r="G311">
-        <f>E311+F311</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="H311">
@@ -44912,7 +45073,7 @@
         <v>4</v>
       </c>
       <c r="G312">
-        <f>E312+F312</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="H312">
@@ -44957,7 +45118,7 @@
         <v>0</v>
       </c>
       <c r="G313">
-        <f>E313+F313</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H313">
@@ -45002,7 +45163,7 @@
         <v>2</v>
       </c>
       <c r="G314">
-        <f>E314+F314</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="H314">
@@ -45047,7 +45208,7 @@
         <v>5</v>
       </c>
       <c r="G315">
-        <f>E315+F315</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="H315">
@@ -45092,7 +45253,7 @@
         <v>4</v>
       </c>
       <c r="G316">
-        <f>E316+F316</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="H316">
@@ -45137,7 +45298,7 @@
         <v>1</v>
       </c>
       <c r="G317">
-        <f>E317+F317</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H317">
@@ -45182,7 +45343,7 @@
         <v>1</v>
       </c>
       <c r="G318">
-        <f>E318+F318</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H318">
@@ -45227,7 +45388,7 @@
         <v>2</v>
       </c>
       <c r="G319">
-        <f>E319+F319</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="H319">
@@ -45272,7 +45433,7 @@
         <v>1</v>
       </c>
       <c r="G320">
-        <f>E320+F320</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H320">
@@ -45317,7 +45478,7 @@
         <v>4</v>
       </c>
       <c r="G321">
-        <f>E321+F321</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="H321">
@@ -45362,7 +45523,7 @@
         <v>1</v>
       </c>
       <c r="G322">
-        <f>E322+F322</f>
+        <f t="shared" ref="G322:G385" si="5">E322+F322</f>
         <v>1</v>
       </c>
       <c r="H322">
@@ -45407,7 +45568,7 @@
         <v>5</v>
       </c>
       <c r="G323">
-        <f>E323+F323</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="H323" t="s">
@@ -45452,7 +45613,7 @@
         <v>1</v>
       </c>
       <c r="G324">
-        <f>E324+F324</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H324">
@@ -45497,7 +45658,7 @@
         <v>2</v>
       </c>
       <c r="G325">
-        <f>E325+F325</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H325">
@@ -45542,7 +45703,7 @@
         <v>3</v>
       </c>
       <c r="G326">
-        <f>E326+F326</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H326">
@@ -45587,7 +45748,7 @@
         <v>2</v>
       </c>
       <c r="G327">
-        <f>E327+F327</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H327">
@@ -45632,7 +45793,7 @@
         <v>2</v>
       </c>
       <c r="G328">
-        <f>E328+F328</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H328">
@@ -45677,7 +45838,7 @@
         <v>0</v>
       </c>
       <c r="G329">
-        <f>E329+F329</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H329">
@@ -45722,7 +45883,7 @@
         <v>0</v>
       </c>
       <c r="G330">
-        <f>E330+F330</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H330">
@@ -45767,7 +45928,7 @@
         <v>0</v>
       </c>
       <c r="G331">
-        <f>E331+F331</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H331">
@@ -45812,7 +45973,7 @@
         <v>0</v>
       </c>
       <c r="G332">
-        <f>E332+F332</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H332">
@@ -45857,7 +46018,7 @@
         <v>0</v>
       </c>
       <c r="G333">
-        <f>E333+F333</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H333">
@@ -45902,7 +46063,7 @@
         <v>2</v>
       </c>
       <c r="G334">
-        <f>E334+F334</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H334">
@@ -45947,7 +46108,7 @@
         <v>0</v>
       </c>
       <c r="G335">
-        <f>E335+F335</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H335">
@@ -45992,7 +46153,7 @@
         <v>1</v>
       </c>
       <c r="G336">
-        <f>E336+F336</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H336">
@@ -46037,7 +46198,7 @@
         <v>1</v>
       </c>
       <c r="G337">
-        <f>E337+F337</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H337">
@@ -46082,7 +46243,7 @@
         <v>2</v>
       </c>
       <c r="G338">
-        <f>E338+F338</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H338">
@@ -46127,7 +46288,7 @@
         <v>5</v>
       </c>
       <c r="G339">
-        <f>E339+F339</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="H339" t="s">
@@ -46172,7 +46333,7 @@
         <v>1</v>
       </c>
       <c r="G340">
-        <f>E340+F340</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H340" t="s">
@@ -46217,7 +46378,7 @@
         <v>0</v>
       </c>
       <c r="G341">
-        <f>E341+F341</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H341">
@@ -46262,7 +46423,7 @@
         <v>0</v>
       </c>
       <c r="G342">
-        <f>E342+F342</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H342">
@@ -46307,7 +46468,7 @@
         <v>1</v>
       </c>
       <c r="G343">
-        <f>E343+F343</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H343">
@@ -46352,7 +46513,7 @@
         <v>4</v>
       </c>
       <c r="G344">
-        <f>E344+F344</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="H344" t="s">
@@ -46397,7 +46558,7 @@
         <v>1</v>
       </c>
       <c r="G345">
-        <f>E345+F345</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H345">
@@ -46442,7 +46603,7 @@
         <v>2</v>
       </c>
       <c r="G346">
-        <f>E346+F346</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H346">
@@ -46487,7 +46648,7 @@
         <v>0</v>
       </c>
       <c r="G347">
-        <f>E347+F347</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H347">
@@ -46532,7 +46693,7 @@
         <v>2</v>
       </c>
       <c r="G348">
-        <f>E348+F348</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H348">
@@ -46577,7 +46738,7 @@
         <v>2</v>
       </c>
       <c r="G349">
-        <f>E349+F349</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H349">
@@ -46622,7 +46783,7 @@
         <v>1</v>
       </c>
       <c r="G350">
-        <f>E350+F350</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H350">
@@ -46667,7 +46828,7 @@
         <v>4</v>
       </c>
       <c r="G351">
-        <f>E351+F351</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="H351">
@@ -46712,7 +46873,7 @@
         <v>1</v>
       </c>
       <c r="G352">
-        <f>E352+F352</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H352">
@@ -46757,7 +46918,7 @@
         <v>0</v>
       </c>
       <c r="G353">
-        <f>E353+F353</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H353" t="s">
@@ -46802,7 +46963,7 @@
         <v>1</v>
       </c>
       <c r="G354">
-        <f>E354+F354</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H354">
@@ -46847,7 +47008,7 @@
         <v>2</v>
       </c>
       <c r="G355">
-        <f>E355+F355</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H355">
@@ -46892,7 +47053,7 @@
         <v>1</v>
       </c>
       <c r="G356">
-        <f>E356+F356</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H356">
@@ -46937,7 +47098,7 @@
         <v>1</v>
       </c>
       <c r="G357">
-        <f>E357+F357</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H357">
@@ -46982,7 +47143,7 @@
         <v>4</v>
       </c>
       <c r="G358">
-        <f>E358+F358</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="H358">
@@ -47027,7 +47188,7 @@
         <v>3</v>
       </c>
       <c r="G359">
-        <f>E359+F359</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H359">
@@ -47072,7 +47233,7 @@
         <v>4</v>
       </c>
       <c r="G360">
-        <f>E360+F360</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="H360">
@@ -47117,7 +47278,7 @@
         <v>5</v>
       </c>
       <c r="G361">
-        <f>E361+F361</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="H361">
@@ -47162,7 +47323,7 @@
         <v>4</v>
       </c>
       <c r="G362">
-        <f>E362+F362</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="H362">
@@ -47207,7 +47368,7 @@
         <v>3</v>
       </c>
       <c r="G363">
-        <f>E363+F363</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H363">
@@ -47252,7 +47413,7 @@
         <v>2</v>
       </c>
       <c r="G364">
-        <f>E364+F364</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H364">
@@ -47297,7 +47458,7 @@
         <v>3</v>
       </c>
       <c r="G365">
-        <f>E365+F365</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H365">
@@ -47342,7 +47503,7 @@
         <v>2</v>
       </c>
       <c r="G366">
-        <f>E366+F366</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H366">
@@ -47387,7 +47548,7 @@
         <v>4</v>
       </c>
       <c r="G367">
-        <f>E367+F367</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="H367">
@@ -47432,7 +47593,7 @@
         <v>3</v>
       </c>
       <c r="G368">
-        <f>E368+F368</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H368">
@@ -47477,7 +47638,7 @@
         <v>9</v>
       </c>
       <c r="G369">
-        <f>E369+F369</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="H369">
@@ -47522,7 +47683,7 @@
         <v>2</v>
       </c>
       <c r="G370">
-        <f>E370+F370</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H370">
@@ -47567,7 +47728,7 @@
         <v>1</v>
       </c>
       <c r="G371">
-        <f>E371+F371</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H371" t="s">
@@ -47612,7 +47773,7 @@
         <v>6</v>
       </c>
       <c r="G372">
-        <f>E372+F372</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="H372" t="s">
@@ -47657,7 +47818,7 @@
         <v>3</v>
       </c>
       <c r="G373">
-        <f>E373+F373</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H373">
@@ -47702,7 +47863,7 @@
         <v>2</v>
       </c>
       <c r="G374">
-        <f>E374+F374</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H374" t="s">
@@ -47747,7 +47908,7 @@
         <v>1</v>
       </c>
       <c r="G375">
-        <f>E375+F375</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H375">
@@ -47792,7 +47953,7 @@
         <v>3</v>
       </c>
       <c r="G376">
-        <f>E376+F376</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H376">
@@ -47837,7 +47998,7 @@
         <v>2</v>
       </c>
       <c r="G377">
-        <f>E377+F377</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H377">
@@ -47882,7 +48043,7 @@
         <v>2</v>
       </c>
       <c r="G378">
-        <f>E378+F378</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H378">
@@ -47927,7 +48088,7 @@
         <v>2</v>
       </c>
       <c r="G379">
-        <f>E379+F379</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H379">
@@ -47972,7 +48133,7 @@
         <v>3</v>
       </c>
       <c r="G380">
-        <f>E380+F380</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H380">
@@ -48017,7 +48178,7 @@
         <v>1</v>
       </c>
       <c r="G381">
-        <f>E381+F381</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H381">
@@ -48062,7 +48223,7 @@
         <v>3</v>
       </c>
       <c r="G382">
-        <f>E382+F382</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H382" t="s">
@@ -48107,7 +48268,7 @@
         <v>2</v>
       </c>
       <c r="G383">
-        <f>E383+F383</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H383">
@@ -48152,7 +48313,7 @@
         <v>4</v>
       </c>
       <c r="G384">
-        <f>E384+F384</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="H384">
@@ -48197,7 +48358,7 @@
         <v>1</v>
       </c>
       <c r="G385">
-        <f>E385+F385</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H385">
@@ -48242,7 +48403,7 @@
         <v>5</v>
       </c>
       <c r="G386">
-        <f>E386+F386</f>
+        <f t="shared" ref="G386:G449" si="6">E386+F386</f>
         <v>5</v>
       </c>
       <c r="H386">
@@ -48287,7 +48448,7 @@
         <v>2</v>
       </c>
       <c r="G387">
-        <f>E387+F387</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="H387">
@@ -48332,7 +48493,7 @@
         <v>0</v>
       </c>
       <c r="G388">
-        <f>E388+F388</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H388">
@@ -48377,7 +48538,7 @@
         <v>3</v>
       </c>
       <c r="G389">
-        <f>E389+F389</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="H389">
@@ -48422,7 +48583,7 @@
         <v>3</v>
       </c>
       <c r="G390">
-        <f>E390+F390</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="H390">
@@ -48467,7 +48628,7 @@
         <v>4</v>
       </c>
       <c r="G391">
-        <f>E391+F391</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="H391">
@@ -48512,7 +48673,7 @@
         <v>2</v>
       </c>
       <c r="G392">
-        <f>E392+F392</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="H392">
@@ -48557,7 +48718,7 @@
         <v>3</v>
       </c>
       <c r="G393">
-        <f>E393+F393</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="H393">
@@ -48602,7 +48763,7 @@
         <v>2</v>
       </c>
       <c r="G394">
-        <f>E394+F394</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="H394">
@@ -48647,7 +48808,7 @@
         <v>5</v>
       </c>
       <c r="G395">
-        <f>E395+F395</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="H395">
@@ -48692,7 +48853,7 @@
         <v>1</v>
       </c>
       <c r="G396">
-        <f>E396+F396</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H396">
@@ -48737,7 +48898,7 @@
         <v>3</v>
       </c>
       <c r="G397">
-        <f>E397+F397</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="H397">
@@ -48782,7 +48943,7 @@
         <v>5</v>
       </c>
       <c r="G398">
-        <f>E398+F398</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="H398">
@@ -48827,7 +48988,7 @@
         <v>4</v>
       </c>
       <c r="G399">
-        <f>E399+F399</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="H399">
@@ -48872,7 +49033,7 @@
         <v>4</v>
       </c>
       <c r="G400">
-        <f>E400+F400</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="H400">
@@ -48917,7 +49078,7 @@
         <v>2</v>
       </c>
       <c r="G401">
-        <f>E401+F401</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="H401">
@@ -48962,7 +49123,7 @@
         <v>1</v>
       </c>
       <c r="G402">
-        <f>E402+F402</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H402">
@@ -49007,7 +49168,7 @@
         <v>1</v>
       </c>
       <c r="G403">
-        <f>E403+F403</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H403">
@@ -49052,7 +49213,7 @@
         <v>1</v>
       </c>
       <c r="G404">
-        <f>E404+F404</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H404">
@@ -49097,7 +49258,7 @@
         <v>3</v>
       </c>
       <c r="G405">
-        <f>E405+F405</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="H405">
@@ -49142,7 +49303,7 @@
         <v>1</v>
       </c>
       <c r="G406">
-        <f>E406+F406</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H406">
@@ -49187,7 +49348,7 @@
         <v>1</v>
       </c>
       <c r="G407">
-        <f>E407+F407</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H407">
@@ -49232,7 +49393,7 @@
         <v>0</v>
       </c>
       <c r="G408">
-        <f>E408+F408</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H408">
@@ -49277,7 +49438,7 @@
         <v>0</v>
       </c>
       <c r="G409">
-        <f>E409+F409</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H409">
@@ -49322,7 +49483,7 @@
         <v>2</v>
       </c>
       <c r="G410">
-        <f>E410+F410</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="H410">
@@ -49367,7 +49528,7 @@
         <v>3</v>
       </c>
       <c r="G411">
-        <f>E411+F411</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="H411">
@@ -49412,7 +49573,7 @@
         <v>2</v>
       </c>
       <c r="G412">
-        <f>E412+F412</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="H412">
@@ -49457,7 +49618,7 @@
         <v>0</v>
       </c>
       <c r="G413">
-        <f>E413+F413</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H413">
@@ -49502,7 +49663,7 @@
         <v>2</v>
       </c>
       <c r="G414">
-        <f>E414+F414</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="H414">
@@ -49547,7 +49708,7 @@
         <v>2</v>
       </c>
       <c r="G415">
-        <f>E415+F415</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="H415">
@@ -49592,7 +49753,7 @@
         <v>0</v>
       </c>
       <c r="G416">
-        <f>E416+F416</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H416">
@@ -49637,7 +49798,7 @@
         <v>1</v>
       </c>
       <c r="G417">
-        <f>E417+F417</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H417">
@@ -49682,7 +49843,7 @@
         <v>4</v>
       </c>
       <c r="G418">
-        <f>E418+F418</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="H418">
@@ -49727,7 +49888,7 @@
         <v>1</v>
       </c>
       <c r="G419">
-        <f>E419+F419</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H419">
@@ -49772,7 +49933,7 @@
         <v>1</v>
       </c>
       <c r="G420">
-        <f>E420+F420</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H420">
@@ -49817,7 +49978,7 @@
         <v>1</v>
       </c>
       <c r="G421">
-        <f>E421+F421</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H421">
@@ -49862,7 +50023,7 @@
         <v>1</v>
       </c>
       <c r="G422">
-        <f>E422+F422</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H422">
@@ -49907,7 +50068,7 @@
         <v>4</v>
       </c>
       <c r="G423">
-        <f>E423+F423</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="H423">
@@ -49952,7 +50113,7 @@
         <v>0</v>
       </c>
       <c r="G424">
-        <f>E424+F424</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H424">
@@ -49997,7 +50158,7 @@
         <v>1</v>
       </c>
       <c r="G425">
-        <f>E425+F425</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H425">
@@ -50042,7 +50203,7 @@
         <v>1</v>
       </c>
       <c r="G426">
-        <f>E426+F426</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H426">
@@ -50087,7 +50248,7 @@
         <v>1</v>
       </c>
       <c r="G427">
-        <f>E427+F427</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H427">
@@ -50132,7 +50293,7 @@
         <v>0</v>
       </c>
       <c r="G428">
-        <f>E428+F428</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H428">
@@ -50177,7 +50338,7 @@
         <v>0</v>
       </c>
       <c r="G429">
-        <f>E429+F429</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H429">
@@ -50222,7 +50383,7 @@
         <v>3</v>
       </c>
       <c r="G430">
-        <f>E430+F430</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="H430">
@@ -50267,7 +50428,7 @@
         <v>7</v>
       </c>
       <c r="G431">
-        <f>E431+F431</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="H431">
@@ -50312,7 +50473,7 @@
         <v>3</v>
       </c>
       <c r="G432">
-        <f>E432+F432</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="H432">
@@ -50357,7 +50518,7 @@
         <v>0</v>
       </c>
       <c r="G433">
-        <f>E433+F433</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H433">
@@ -50402,7 +50563,7 @@
         <v>5</v>
       </c>
       <c r="G434">
-        <f>E434+F434</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="H434">
@@ -50447,7 +50608,7 @@
         <v>1</v>
       </c>
       <c r="G435">
-        <f>E435+F435</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H435">
@@ -50492,7 +50653,7 @@
         <v>5</v>
       </c>
       <c r="G436">
-        <f>E436+F436</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="H436">
@@ -50537,7 +50698,7 @@
         <v>3</v>
       </c>
       <c r="G437">
-        <f>E437+F437</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="H437">
@@ -50582,7 +50743,7 @@
         <v>2</v>
       </c>
       <c r="G438">
-        <f>E438+F438</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="H438">
@@ -50627,7 +50788,7 @@
         <v>1</v>
       </c>
       <c r="G439">
-        <f>E439+F439</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H439">
@@ -50672,7 +50833,7 @@
         <v>3</v>
       </c>
       <c r="G440">
-        <f>E440+F440</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="H440">
@@ -50717,7 +50878,7 @@
         <v>1</v>
       </c>
       <c r="G441">
-        <f>E441+F441</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H441">
@@ -50762,7 +50923,7 @@
         <v>1</v>
       </c>
       <c r="G442">
-        <f>E442+F442</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H442">
@@ -50807,7 +50968,7 @@
         <v>2</v>
       </c>
       <c r="G443">
-        <f>E443+F443</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="H443">
@@ -50852,7 +51013,7 @@
         <v>3</v>
       </c>
       <c r="G444">
-        <f>E444+F444</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="H444">
@@ -50897,7 +51058,7 @@
         <v>2</v>
       </c>
       <c r="G445">
-        <f>E445+F445</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="H445" t="s">
@@ -50942,7 +51103,7 @@
         <v>1</v>
       </c>
       <c r="G446">
-        <f>E446+F446</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H446">
@@ -50987,7 +51148,7 @@
         <v>0</v>
       </c>
       <c r="G447">
-        <f>E447+F447</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H447">
@@ -51032,7 +51193,7 @@
         <v>4</v>
       </c>
       <c r="G448">
-        <f>E448+F448</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="H448">
@@ -51077,7 +51238,7 @@
         <v>3</v>
       </c>
       <c r="G449">
-        <f>E449+F449</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="H449">
@@ -51122,7 +51283,7 @@
         <v>4</v>
       </c>
       <c r="G450">
-        <f>E450+F450</f>
+        <f t="shared" ref="G450:G513" si="7">E450+F450</f>
         <v>4</v>
       </c>
       <c r="H450" t="s">
@@ -51167,7 +51328,7 @@
         <v>4</v>
       </c>
       <c r="G451">
-        <f>E451+F451</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="H451">
@@ -51212,7 +51373,7 @@
         <v>3</v>
       </c>
       <c r="G452">
-        <f>E452+F452</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="H452">
@@ -51257,7 +51418,7 @@
         <v>3</v>
       </c>
       <c r="G453">
-        <f>E453+F453</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="H453">
@@ -51302,7 +51463,7 @@
         <v>4</v>
       </c>
       <c r="G454">
-        <f>E454+F454</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="H454">
@@ -51347,7 +51508,7 @@
         <v>3</v>
       </c>
       <c r="G455">
-        <f>E455+F455</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="H455">
@@ -51392,7 +51553,7 @@
         <v>3</v>
       </c>
       <c r="G456">
-        <f>E456+F456</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="H456">
@@ -51437,7 +51598,7 @@
         <v>2</v>
       </c>
       <c r="G457">
-        <f>E457+F457</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="H457">
@@ -51482,7 +51643,7 @@
         <v>3</v>
       </c>
       <c r="G458">
-        <f>E458+F458</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="H458">
@@ -51527,7 +51688,7 @@
         <v>4</v>
       </c>
       <c r="G459">
-        <f>E459+F459</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="H459">
@@ -51572,7 +51733,7 @@
         <v>3</v>
       </c>
       <c r="G460">
-        <f>E460+F460</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="H460">
@@ -51617,7 +51778,7 @@
         <v>4</v>
       </c>
       <c r="G461">
-        <f>E461+F461</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="H461">
@@ -51662,7 +51823,7 @@
         <v>0</v>
       </c>
       <c r="G462">
-        <f>E462+F462</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H462">
@@ -51707,7 +51868,7 @@
         <v>6</v>
       </c>
       <c r="G463">
-        <f>E463+F463</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="H463">
@@ -51752,7 +51913,7 @@
         <v>2</v>
       </c>
       <c r="G464">
-        <f>E464+F464</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="H464">
@@ -51797,7 +51958,7 @@
         <v>4</v>
       </c>
       <c r="G465">
-        <f>E465+F465</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="H465">
@@ -51842,7 +52003,7 @@
         <v>2</v>
       </c>
       <c r="G466">
-        <f>E466+F466</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="H466">
@@ -51887,7 +52048,7 @@
         <v>5</v>
       </c>
       <c r="G467">
-        <f>E467+F467</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="H467">
@@ -51932,7 +52093,7 @@
         <v>1</v>
       </c>
       <c r="G468">
-        <f>E468+F468</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H468">
@@ -51977,7 +52138,7 @@
         <v>2</v>
       </c>
       <c r="G469">
-        <f>E469+F469</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="H469">
@@ -52022,7 +52183,7 @@
         <v>2</v>
       </c>
       <c r="G470">
-        <f>E470+F470</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="H470">
@@ -52067,7 +52228,7 @@
         <v>0</v>
       </c>
       <c r="G471">
-        <f>E471+F471</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H471">
@@ -52112,7 +52273,7 @@
         <v>4</v>
       </c>
       <c r="G472">
-        <f>E472+F472</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="H472">
@@ -52157,7 +52318,7 @@
         <v>3</v>
       </c>
       <c r="G473">
-        <f>E473+F473</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="H473">
@@ -52202,7 +52363,7 @@
         <v>2</v>
       </c>
       <c r="G474">
-        <f>E474+F474</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="H474">
@@ -52247,7 +52408,7 @@
         <v>1</v>
       </c>
       <c r="G475">
-        <f>E475+F475</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H475">
@@ -52292,7 +52453,7 @@
         <v>2</v>
       </c>
       <c r="G476">
-        <f>E476+F476</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="H476">
@@ -52337,7 +52498,7 @@
         <v>6</v>
       </c>
       <c r="G477">
-        <f>E477+F477</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="H477">
@@ -52382,7 +52543,7 @@
         <v>2</v>
       </c>
       <c r="G478">
-        <f>E478+F478</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="H478">
@@ -52427,7 +52588,7 @@
         <v>1</v>
       </c>
       <c r="G479">
-        <f>E479+F479</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H479">
@@ -52472,7 +52633,7 @@
         <v>1</v>
       </c>
       <c r="G480">
-        <f>E480+F480</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H480">
@@ -52517,7 +52678,7 @@
         <v>2</v>
       </c>
       <c r="G481">
-        <f>E481+F481</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="H481">
@@ -52562,7 +52723,7 @@
         <v>2</v>
       </c>
       <c r="G482">
-        <f>E482+F482</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="H482">
@@ -52607,7 +52768,7 @@
         <v>1</v>
       </c>
       <c r="G483">
-        <f>E483+F483</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H483">
@@ -52652,7 +52813,7 @@
         <v>0</v>
       </c>
       <c r="G484">
-        <f>E484+F484</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H484">
@@ -52697,7 +52858,7 @@
         <v>1</v>
       </c>
       <c r="G485">
-        <f>E485+F485</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H485" t="s">
@@ -52742,7 +52903,7 @@
         <v>0</v>
       </c>
       <c r="G486">
-        <f>E486+F486</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H486">
@@ -52787,7 +52948,7 @@
         <v>0</v>
       </c>
       <c r="G487">
-        <f>E487+F487</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H487">
@@ -52832,7 +52993,7 @@
         <v>1</v>
       </c>
       <c r="G488">
-        <f>E488+F488</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H488">
@@ -52877,7 +53038,7 @@
         <v>1</v>
       </c>
       <c r="G489">
-        <f>E489+F489</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H489">
@@ -52922,7 +53083,7 @@
         <v>2</v>
       </c>
       <c r="G490">
-        <f>E490+F490</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="H490">
@@ -52967,7 +53128,7 @@
         <v>1</v>
       </c>
       <c r="G491">
-        <f>E491+F491</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H491">
@@ -53012,7 +53173,7 @@
         <v>3</v>
       </c>
       <c r="G492">
-        <f>E492+F492</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="H492">
@@ -53057,7 +53218,7 @@
         <v>1</v>
       </c>
       <c r="G493">
-        <f>E493+F493</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H493">
@@ -53102,7 +53263,7 @@
         <v>3</v>
       </c>
       <c r="G494">
-        <f>E494+F494</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="H494">
@@ -53147,7 +53308,7 @@
         <v>3</v>
       </c>
       <c r="G495">
-        <f>E495+F495</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="H495">
@@ -53192,7 +53353,7 @@
         <v>4</v>
       </c>
       <c r="G496">
-        <f>E496+F496</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="H496">
@@ -53237,7 +53398,7 @@
         <v>8</v>
       </c>
       <c r="G497">
-        <f>E497+F497</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="H497" t="s">
@@ -53282,7 +53443,7 @@
         <v>1</v>
       </c>
       <c r="G498">
-        <f>E498+F498</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H498">
@@ -53327,7 +53488,7 @@
         <v>1</v>
       </c>
       <c r="G499">
-        <f>E499+F499</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H499">
@@ -53372,7 +53533,7 @@
         <v>1</v>
       </c>
       <c r="G500">
-        <f>E500+F500</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H500">
@@ -53417,7 +53578,7 @@
         <v>5</v>
       </c>
       <c r="G501">
-        <f>E501+F501</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="H501">
@@ -53462,7 +53623,7 @@
         <v>5</v>
       </c>
       <c r="G502">
-        <f>E502+F502</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="H502" t="s">
@@ -53507,7 +53668,7 @@
         <v>0</v>
       </c>
       <c r="G503">
-        <f>E503+F503</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H503">
@@ -53552,7 +53713,7 @@
         <v>6</v>
       </c>
       <c r="G504">
-        <f>E504+F504</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="H504">
@@ -53597,7 +53758,7 @@
         <v>3</v>
       </c>
       <c r="G505">
-        <f>E505+F505</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="H505" t="s">
@@ -53642,7 +53803,7 @@
         <v>0</v>
       </c>
       <c r="G506">
-        <f>E506+F506</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H506">
@@ -53687,7 +53848,7 @@
         <v>1</v>
       </c>
       <c r="G507">
-        <f>E507+F507</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H507">
@@ -53732,7 +53893,7 @@
         <v>0</v>
       </c>
       <c r="G508">
-        <f>E508+F508</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H508">
@@ -53777,7 +53938,7 @@
         <v>2</v>
       </c>
       <c r="G509">
-        <f>E509+F509</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="H509">
@@ -53822,7 +53983,7 @@
         <v>6</v>
       </c>
       <c r="G510">
-        <f>E510+F510</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="H510" t="s">
@@ -53867,7 +54028,7 @@
         <v>0</v>
       </c>
       <c r="G511">
-        <f>E511+F511</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H511">
@@ -53912,7 +54073,7 @@
         <v>2</v>
       </c>
       <c r="G512">
-        <f>E512+F512</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="H512" t="s">
@@ -53957,7 +54118,7 @@
         <v>0</v>
       </c>
       <c r="G513">
-        <f>E513+F513</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H513">
@@ -54002,7 +54163,7 @@
         <v>0</v>
       </c>
       <c r="G514">
-        <f>E514+F514</f>
+        <f t="shared" ref="G514:G577" si="8">E514+F514</f>
         <v>0</v>
       </c>
       <c r="H514">
@@ -54047,7 +54208,7 @@
         <v>3</v>
       </c>
       <c r="G515">
-        <f>E515+F515</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="H515">
@@ -54092,7 +54253,7 @@
         <v>1</v>
       </c>
       <c r="G516">
-        <f>E516+F516</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H516">
@@ -54137,7 +54298,7 @@
         <v>4</v>
       </c>
       <c r="G517">
-        <f>E517+F517</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="H517">
@@ -54182,7 +54343,7 @@
         <v>12</v>
       </c>
       <c r="G518">
-        <f>E518+F518</f>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="H518">
@@ -54227,7 +54388,7 @@
         <v>1</v>
       </c>
       <c r="G519">
-        <f>E519+F519</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H519">
@@ -54272,7 +54433,7 @@
         <v>5</v>
       </c>
       <c r="G520">
-        <f>E520+F520</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="H520">
@@ -54317,7 +54478,7 @@
         <v>7</v>
       </c>
       <c r="G521">
-        <f>E521+F521</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="H521">
@@ -54362,7 +54523,7 @@
         <v>11</v>
       </c>
       <c r="G522">
-        <f>E522+F522</f>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="H522">
@@ -54407,7 +54568,7 @@
         <v>3</v>
       </c>
       <c r="G523">
-        <f>E523+F523</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="H523">
@@ -54452,7 +54613,7 @@
         <v>5</v>
       </c>
       <c r="G524">
-        <f>E524+F524</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="H524">
@@ -54497,7 +54658,7 @@
         <v>5</v>
       </c>
       <c r="G525">
-        <f>E525+F525</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="H525" t="s">
@@ -54542,7 +54703,7 @@
         <v>6</v>
       </c>
       <c r="G526">
-        <f>E526+F526</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="H526">
@@ -54587,7 +54748,7 @@
         <v>0</v>
       </c>
       <c r="G527">
-        <f>E527+F527</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H527">
@@ -54632,7 +54793,7 @@
         <v>5</v>
       </c>
       <c r="G528">
-        <f>E528+F528</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="H528">
@@ -54677,7 +54838,7 @@
         <v>4</v>
       </c>
       <c r="G529">
-        <f>E529+F529</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="H529">
@@ -54722,7 +54883,7 @@
         <v>0</v>
       </c>
       <c r="G530">
-        <f>E530+F530</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H530">
@@ -54767,7 +54928,7 @@
         <v>4</v>
       </c>
       <c r="G531">
-        <f>E531+F531</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="H531">
@@ -54812,7 +54973,7 @@
         <v>3</v>
       </c>
       <c r="G532">
-        <f>E532+F532</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="H532" t="s">
@@ -54857,7 +55018,7 @@
         <v>2</v>
       </c>
       <c r="G533">
-        <f>E533+F533</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="H533">
@@ -54902,7 +55063,7 @@
         <v>2</v>
       </c>
       <c r="G534">
-        <f>E534+F534</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="H534" t="s">
@@ -54947,7 +55108,7 @@
         <v>2</v>
       </c>
       <c r="G535">
-        <f>E535+F535</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="H535">
@@ -54992,7 +55153,7 @@
         <v>10</v>
       </c>
       <c r="G536">
-        <f>E536+F536</f>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="H536">
@@ -55037,7 +55198,7 @@
         <v>0</v>
       </c>
       <c r="G537">
-        <f>E537+F537</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H537">
@@ -55082,7 +55243,7 @@
         <v>4</v>
       </c>
       <c r="G538">
-        <f>E538+F538</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="H538">
@@ -55127,7 +55288,7 @@
         <v>1</v>
       </c>
       <c r="G539">
-        <f>E539+F539</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H539">
@@ -55172,7 +55333,7 @@
         <v>3</v>
       </c>
       <c r="G540">
-        <f>E540+F540</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="H540">
@@ -55217,7 +55378,7 @@
         <v>5</v>
       </c>
       <c r="G541">
-        <f>E541+F541</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="H541">
@@ -55262,7 +55423,7 @@
         <v>3</v>
       </c>
       <c r="G542">
-        <f>E542+F542</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="H542">
@@ -55307,7 +55468,7 @@
         <v>3</v>
       </c>
       <c r="G543">
-        <f>E543+F543</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="H543">
@@ -55352,7 +55513,7 @@
         <v>2</v>
       </c>
       <c r="G544">
-        <f>E544+F544</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="H544">
@@ -55397,7 +55558,7 @@
         <v>6</v>
       </c>
       <c r="G545">
-        <f>E545+F545</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="H545">
@@ -55442,7 +55603,7 @@
         <v>5</v>
       </c>
       <c r="G546">
-        <f>E546+F546</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="H546">
@@ -55487,7 +55648,7 @@
         <v>5</v>
       </c>
       <c r="G547">
-        <f>E547+F547</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="H547">
@@ -55532,7 +55693,7 @@
         <v>3</v>
       </c>
       <c r="G548">
-        <f>E548+F548</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="H548" t="s">
@@ -55577,7 +55738,7 @@
         <v>3</v>
       </c>
       <c r="G549">
-        <f>E549+F549</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="H549">
@@ -55622,7 +55783,7 @@
         <v>4</v>
       </c>
       <c r="G550">
-        <f>E550+F550</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="H550">
@@ -55667,7 +55828,7 @@
         <v>1</v>
       </c>
       <c r="G551">
-        <f>E551+F551</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H551">
@@ -55712,7 +55873,7 @@
         <v>1</v>
       </c>
       <c r="G552">
-        <f>E552+F552</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H552">
@@ -55757,7 +55918,7 @@
         <v>3</v>
       </c>
       <c r="G553">
-        <f>E553+F553</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="H553">
@@ -55802,7 +55963,7 @@
         <v>3</v>
       </c>
       <c r="G554">
-        <f>E554+F554</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="H554">
@@ -55847,7 +56008,7 @@
         <v>3</v>
       </c>
       <c r="G555">
-        <f>E555+F555</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="H555" t="s">
@@ -55892,7 +56053,7 @@
         <v>3</v>
       </c>
       <c r="G556">
-        <f>E556+F556</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="H556">
@@ -55937,7 +56098,7 @@
         <v>0</v>
       </c>
       <c r="G557">
-        <f>E557+F557</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H557">
@@ -55982,7 +56143,7 @@
         <v>1</v>
       </c>
       <c r="G558">
-        <f>E558+F558</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H558" t="s">
@@ -56027,7 +56188,7 @@
         <v>0</v>
       </c>
       <c r="G559">
-        <f>E559+F559</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H559">
@@ -56072,7 +56233,7 @@
         <v>1</v>
       </c>
       <c r="G560">
-        <f>E560+F560</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H560">
@@ -56117,7 +56278,7 @@
         <v>2</v>
       </c>
       <c r="G561">
-        <f>E561+F561</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="H561">
@@ -56162,7 +56323,7 @@
         <v>2</v>
       </c>
       <c r="G562">
-        <f>E562+F562</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="H562">
@@ -56207,7 +56368,7 @@
         <v>6</v>
       </c>
       <c r="G563">
-        <f>E563+F563</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="H563" t="s">
@@ -56252,7 +56413,7 @@
         <v>0</v>
       </c>
       <c r="G564">
-        <f>E564+F564</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H564" t="s">
@@ -56297,7 +56458,7 @@
         <v>1</v>
       </c>
       <c r="G565">
-        <f>E565+F565</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H565">
@@ -56342,7 +56503,7 @@
         <v>1</v>
       </c>
       <c r="G566">
-        <f>E566+F566</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H566">
@@ -56387,7 +56548,7 @@
         <v>3</v>
       </c>
       <c r="G567">
-        <f>E567+F567</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="H567">
@@ -56432,7 +56593,7 @@
         <v>2</v>
       </c>
       <c r="G568">
-        <f>E568+F568</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="H568">
@@ -56477,7 +56638,7 @@
         <v>3</v>
       </c>
       <c r="G569">
-        <f>E569+F569</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="H569">
@@ -56522,7 +56683,7 @@
         <v>2</v>
       </c>
       <c r="G570">
-        <f>E570+F570</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="H570">
@@ -56567,7 +56728,7 @@
         <v>4</v>
       </c>
       <c r="G571">
-        <f>E571+F571</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="H571" t="s">
@@ -56612,7 +56773,7 @@
         <v>1</v>
       </c>
       <c r="G572">
-        <f>E572+F572</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H572">
@@ -56657,7 +56818,7 @@
         <v>5</v>
       </c>
       <c r="G573">
-        <f>E573+F573</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="H573">
@@ -56702,7 +56863,7 @@
         <v>2</v>
       </c>
       <c r="G574">
-        <f>E574+F574</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="H574">
@@ -56747,7 +56908,7 @@
         <v>0</v>
       </c>
       <c r="G575">
-        <f>E575+F575</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H575">
@@ -56792,7 +56953,7 @@
         <v>5</v>
       </c>
       <c r="G576">
-        <f>E576+F576</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="H576">
@@ -56837,7 +56998,7 @@
         <v>3</v>
       </c>
       <c r="G577">
-        <f>E577+F577</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="H577">
@@ -56882,7 +57043,7 @@
         <v>2</v>
       </c>
       <c r="G578">
-        <f>E578+F578</f>
+        <f t="shared" ref="G578:G641" si="9">E578+F578</f>
         <v>2</v>
       </c>
       <c r="H578">
@@ -56927,7 +57088,7 @@
         <v>2</v>
       </c>
       <c r="G579">
-        <f>E579+F579</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="H579" t="s">
@@ -56972,7 +57133,7 @@
         <v>3</v>
       </c>
       <c r="G580">
-        <f>E580+F580</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="H580">
@@ -57017,7 +57178,7 @@
         <v>4</v>
       </c>
       <c r="G581">
-        <f>E581+F581</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="H581">
@@ -57062,7 +57223,7 @@
         <v>5</v>
       </c>
       <c r="G582">
-        <f>E582+F582</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="H582">
@@ -57107,7 +57268,7 @@
         <v>6</v>
       </c>
       <c r="G583">
-        <f>E583+F583</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="H583">
@@ -57152,7 +57313,7 @@
         <v>0</v>
       </c>
       <c r="G584">
-        <f>E584+F584</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H584">
@@ -57197,7 +57358,7 @@
         <v>2</v>
       </c>
       <c r="G585">
-        <f>E585+F585</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="H585">
@@ -57242,7 +57403,7 @@
         <v>8</v>
       </c>
       <c r="G586">
-        <f>E586+F586</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="H586">
@@ -57287,7 +57448,7 @@
         <v>5</v>
       </c>
       <c r="G587">
-        <f>E587+F587</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="H587">
@@ -57332,7 +57493,7 @@
         <v>2</v>
       </c>
       <c r="G588">
-        <f>E588+F588</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="H588">
@@ -57377,7 +57538,7 @@
         <v>2</v>
       </c>
       <c r="G589">
-        <f>E589+F589</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="H589">
@@ -57422,7 +57583,7 @@
         <v>10</v>
       </c>
       <c r="G590">
-        <f>E590+F590</f>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="H590" t="s">
@@ -57467,7 +57628,7 @@
         <v>3</v>
       </c>
       <c r="G591">
-        <f>E591+F591</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="H591">
@@ -57512,7 +57673,7 @@
         <v>6</v>
       </c>
       <c r="G592">
-        <f>E592+F592</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="H592">
@@ -57557,7 +57718,7 @@
         <v>3</v>
       </c>
       <c r="G593">
-        <f>E593+F593</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="H593">
@@ -57602,7 +57763,7 @@
         <v>2</v>
       </c>
       <c r="G594">
-        <f>E594+F594</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="H594">
@@ -57647,7 +57808,7 @@
         <v>2</v>
       </c>
       <c r="G595">
-        <f>E595+F595</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="H595">
@@ -57692,7 +57853,7 @@
         <v>2</v>
       </c>
       <c r="G596">
-        <f>E596+F596</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="H596">
@@ -57737,7 +57898,7 @@
         <v>2</v>
       </c>
       <c r="G597">
-        <f>E597+F597</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="H597">
@@ -57782,7 +57943,7 @@
         <v>0</v>
       </c>
       <c r="G598">
-        <f>E598+F598</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H598">
@@ -57827,7 +57988,7 @@
         <v>2</v>
       </c>
       <c r="G599">
-        <f>E599+F599</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="H599">
@@ -57872,7 +58033,7 @@
         <v>4</v>
       </c>
       <c r="G600">
-        <f>E600+F600</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="H600">
@@ -57917,7 +58078,7 @@
         <v>5</v>
       </c>
       <c r="G601">
-        <f>E601+F601</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="H601">
@@ -57962,7 +58123,7 @@
         <v>1</v>
       </c>
       <c r="G602">
-        <f>E602+F602</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H602">
@@ -58007,7 +58168,7 @@
         <v>5</v>
       </c>
       <c r="G603">
-        <f>E603+F603</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="H603">
@@ -58052,7 +58213,7 @@
         <v>1</v>
       </c>
       <c r="G604">
-        <f>E604+F604</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H604">
@@ -58097,7 +58258,7 @@
         <v>0</v>
       </c>
       <c r="G605">
-        <f>E605+F605</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H605">
@@ -58142,7 +58303,7 @@
         <v>2</v>
       </c>
       <c r="G606">
-        <f>E606+F606</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="H606">
@@ -58187,7 +58348,7 @@
         <v>0</v>
       </c>
       <c r="G607">
-        <f>E607+F607</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H607">
@@ -58232,7 +58393,7 @@
         <v>2</v>
       </c>
       <c r="G608">
-        <f>E608+F608</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="H608">
@@ -58277,7 +58438,7 @@
         <v>5</v>
       </c>
       <c r="G609">
-        <f>E609+F609</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="H609">
@@ -58322,7 +58483,7 @@
         <v>3</v>
       </c>
       <c r="G610">
-        <f>E610+F610</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="H610">
@@ -58367,7 +58528,7 @@
         <v>4</v>
       </c>
       <c r="G611">
-        <f>E611+F611</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="H611">
@@ -58412,7 +58573,7 @@
         <v>2</v>
       </c>
       <c r="G612">
-        <f>E612+F612</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="H612">
@@ -58457,7 +58618,7 @@
         <v>3</v>
       </c>
       <c r="G613">
-        <f>E613+F613</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="H613">
@@ -58502,7 +58663,7 @@
         <v>2</v>
       </c>
       <c r="G614">
-        <f>E614+F614</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="H614">
@@ -58547,7 +58708,7 @@
         <v>1</v>
       </c>
       <c r="G615">
-        <f>E615+F615</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H615">
@@ -58592,7 +58753,7 @@
         <v>1</v>
       </c>
       <c r="G616">
-        <f>E616+F616</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H616">
@@ -58637,7 +58798,7 @@
         <v>2</v>
       </c>
       <c r="G617">
-        <f>E617+F617</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="H617">
@@ -58682,7 +58843,7 @@
         <v>0</v>
       </c>
       <c r="G618">
-        <f>E618+F618</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H618">
@@ -58727,7 +58888,7 @@
         <v>0</v>
       </c>
       <c r="G619">
-        <f>E619+F619</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H619">
@@ -58772,7 +58933,7 @@
         <v>1</v>
       </c>
       <c r="G620">
-        <f>E620+F620</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H620">
@@ -58817,7 +58978,7 @@
         <v>1</v>
       </c>
       <c r="G621">
-        <f>E621+F621</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H621">
@@ -58862,7 +59023,7 @@
         <v>2</v>
       </c>
       <c r="G622">
-        <f>E622+F622</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="H622">
@@ -58907,7 +59068,7 @@
         <v>0</v>
       </c>
       <c r="G623">
-        <f>E623+F623</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H623">
@@ -58952,7 +59113,7 @@
         <v>2</v>
       </c>
       <c r="G624">
-        <f>E624+F624</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="H624">
@@ -58997,7 +59158,7 @@
         <v>0</v>
       </c>
       <c r="G625">
-        <f>E625+F625</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H625">
@@ -59042,7 +59203,7 @@
         <v>2</v>
       </c>
       <c r="G626">
-        <f>E626+F626</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="H626">
@@ -59087,7 +59248,7 @@
         <v>3</v>
       </c>
       <c r="G627">
-        <f>E627+F627</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="H627">
@@ -59132,7 +59293,7 @@
         <v>2</v>
       </c>
       <c r="G628">
-        <f>E628+F628</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="H628">
@@ -59177,7 +59338,7 @@
         <v>1</v>
       </c>
       <c r="G629">
-        <f>E629+F629</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H629">
@@ -59222,7 +59383,7 @@
         <v>0</v>
       </c>
       <c r="G630">
-        <f>E630+F630</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H630">
@@ -59267,7 +59428,7 @@
         <v>1</v>
       </c>
       <c r="G631">
-        <f>E631+F631</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H631">
@@ -59312,7 +59473,7 @@
         <v>0</v>
       </c>
       <c r="G632">
-        <f>E632+F632</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H632">
@@ -59357,7 +59518,7 @@
         <v>5</v>
       </c>
       <c r="G633">
-        <f>E633+F633</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="H633">
@@ -59402,7 +59563,7 @@
         <v>3</v>
       </c>
       <c r="G634">
-        <f>E634+F634</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="H634">
@@ -59447,7 +59608,7 @@
         <v>5</v>
       </c>
       <c r="G635">
-        <f>E635+F635</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="H635">
@@ -59492,7 +59653,7 @@
         <v>3</v>
       </c>
       <c r="G636">
-        <f>E636+F636</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="H636">
@@ -59537,7 +59698,7 @@
         <v>1</v>
       </c>
       <c r="G637">
-        <f>E637+F637</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H637">
@@ -59582,7 +59743,7 @@
         <v>0</v>
       </c>
       <c r="G638">
-        <f>E638+F638</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H638">
@@ -59627,7 +59788,7 @@
         <v>8</v>
       </c>
       <c r="G639">
-        <f>E639+F639</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="H639">
@@ -59672,7 +59833,7 @@
         <v>0</v>
       </c>
       <c r="G640">
-        <f>E640+F640</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H640">
@@ -59717,7 +59878,7 @@
         <v>6</v>
       </c>
       <c r="G641">
-        <f>E641+F641</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="H641">
@@ -59762,7 +59923,7 @@
         <v>3</v>
       </c>
       <c r="G642">
-        <f>E642+F642</f>
+        <f t="shared" ref="G642:G705" si="10">E642+F642</f>
         <v>3</v>
       </c>
       <c r="H642">
@@ -59807,7 +59968,7 @@
         <v>0</v>
       </c>
       <c r="G643">
-        <f>E643+F643</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H643">
@@ -59852,7 +60013,7 @@
         <v>1</v>
       </c>
       <c r="G644">
-        <f>E644+F644</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H644">
@@ -59897,7 +60058,7 @@
         <v>5</v>
       </c>
       <c r="G645">
-        <f>E645+F645</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="H645">
@@ -59942,7 +60103,7 @@
         <v>2</v>
       </c>
       <c r="G646">
-        <f>E646+F646</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="H646">
@@ -59987,7 +60148,7 @@
         <v>2</v>
       </c>
       <c r="G647">
-        <f>E647+F647</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="H647">
@@ -60032,7 +60193,7 @@
         <v>2</v>
       </c>
       <c r="G648">
-        <f>E648+F648</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="H648">
@@ -60077,7 +60238,7 @@
         <v>2</v>
       </c>
       <c r="G649">
-        <f>E649+F649</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="H649">
@@ -60122,7 +60283,7 @@
         <v>0</v>
       </c>
       <c r="G650">
-        <f>E650+F650</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H650">
@@ -60167,7 +60328,7 @@
         <v>4</v>
       </c>
       <c r="G651">
-        <f>E651+F651</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="H651">
@@ -60212,7 +60373,7 @@
         <v>4</v>
       </c>
       <c r="G652">
-        <f>E652+F652</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="H652">
@@ -60257,7 +60418,7 @@
         <v>6</v>
       </c>
       <c r="G653">
-        <f>E653+F653</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="H653">
@@ -60302,7 +60463,7 @@
         <v>2</v>
       </c>
       <c r="G654">
-        <f>E654+F654</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="H654">
@@ -60347,7 +60508,7 @@
         <v>2</v>
       </c>
       <c r="G655">
-        <f>E655+F655</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="H655">
@@ -60392,7 +60553,7 @@
         <v>3</v>
       </c>
       <c r="G656">
-        <f>E656+F656</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="H656">
@@ -60437,7 +60598,7 @@
         <v>0</v>
       </c>
       <c r="G657">
-        <f>E657+F657</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H657">
@@ -60482,7 +60643,7 @@
         <v>1</v>
       </c>
       <c r="G658">
-        <f>E658+F658</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H658">
@@ -60527,7 +60688,7 @@
         <v>2</v>
       </c>
       <c r="G659">
-        <f>E659+F659</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="H659">
@@ -60572,7 +60733,7 @@
         <v>3</v>
       </c>
       <c r="G660">
-        <f>E660+F660</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="H660">
@@ -60617,7 +60778,7 @@
         <v>1</v>
       </c>
       <c r="G661">
-        <f>E661+F661</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H661">
@@ -60662,7 +60823,7 @@
         <v>1</v>
       </c>
       <c r="G662">
-        <f>E662+F662</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H662">
@@ -60707,7 +60868,7 @@
         <v>3</v>
       </c>
       <c r="G663">
-        <f>E663+F663</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="H663">
@@ -60752,7 +60913,7 @@
         <v>2</v>
       </c>
       <c r="G664">
-        <f>E664+F664</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="H664">
@@ -60797,7 +60958,7 @@
         <v>1</v>
       </c>
       <c r="G665">
-        <f>E665+F665</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H665">
@@ -60842,7 +61003,7 @@
         <v>3</v>
       </c>
       <c r="G666">
-        <f>E666+F666</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="H666">
@@ -60887,7 +61048,7 @@
         <v>0</v>
       </c>
       <c r="G667">
-        <f>E667+F667</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H667">
@@ -60932,7 +61093,7 @@
         <v>5</v>
       </c>
       <c r="G668">
-        <f>E668+F668</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="H668">
@@ -60977,7 +61138,7 @@
         <v>2</v>
       </c>
       <c r="G669">
-        <f>E669+F669</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="H669">
@@ -61022,7 +61183,7 @@
         <v>2</v>
       </c>
       <c r="G670">
-        <f>E670+F670</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="H670">
@@ -61067,7 +61228,7 @@
         <v>2</v>
       </c>
       <c r="G671">
-        <f>E671+F671</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="H671">
@@ -61112,7 +61273,7 @@
         <v>3</v>
       </c>
       <c r="G672">
-        <f>E672+F672</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="H672">
@@ -61157,7 +61318,7 @@
         <v>3</v>
       </c>
       <c r="G673">
-        <f>E673+F673</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="H673">
@@ -61202,7 +61363,7 @@
         <v>0</v>
       </c>
       <c r="G674">
-        <f>E674+F674</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H674">
@@ -61247,7 +61408,7 @@
         <v>1</v>
       </c>
       <c r="G675">
-        <f>E675+F675</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H675">
@@ -61292,7 +61453,7 @@
         <v>1</v>
       </c>
       <c r="G676">
-        <f>E676+F676</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H676">
@@ -61337,7 +61498,7 @@
         <v>1</v>
       </c>
       <c r="G677">
-        <f>E677+F677</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H677">
@@ -61382,7 +61543,7 @@
         <v>0</v>
       </c>
       <c r="G678">
-        <f>E678+F678</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H678">
@@ -61427,7 +61588,7 @@
         <v>0</v>
       </c>
       <c r="G679">
-        <f>E679+F679</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H679">
@@ -61472,7 +61633,7 @@
         <v>0</v>
       </c>
       <c r="G680">
-        <f>E680+F680</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H680">
@@ -61517,7 +61678,7 @@
         <v>0</v>
       </c>
       <c r="G681">
-        <f>E681+F681</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H681">
@@ -61562,7 +61723,7 @@
         <v>0</v>
       </c>
       <c r="G682">
-        <f>E682+F682</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H682">
@@ -61607,7 +61768,7 @@
         <v>1</v>
       </c>
       <c r="G683">
-        <f>E683+F683</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H683">
@@ -61652,7 +61813,7 @@
         <v>0</v>
       </c>
       <c r="G684">
-        <f>E684+F684</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H684">
@@ -61697,7 +61858,7 @@
         <v>1</v>
       </c>
       <c r="G685">
-        <f>E685+F685</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H685">
@@ -61742,7 +61903,7 @@
         <v>0</v>
       </c>
       <c r="G686">
-        <f>E686+F686</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H686">
@@ -61787,7 +61948,7 @@
         <v>0</v>
       </c>
       <c r="G687">
-        <f>E687+F687</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H687">
@@ -61832,7 +61993,7 @@
         <v>1</v>
       </c>
       <c r="G688">
-        <f>E688+F688</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H688">
@@ -61877,7 +62038,7 @@
         <v>0</v>
       </c>
       <c r="G689">
-        <f>E689+F689</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H689">
@@ -61922,7 +62083,7 @@
         <v>0</v>
       </c>
       <c r="G690">
-        <f>E690+F690</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H690">
@@ -61967,7 +62128,7 @@
         <v>2</v>
       </c>
       <c r="G691">
-        <f>E691+F691</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="H691">
@@ -62012,7 +62173,7 @@
         <v>1</v>
       </c>
       <c r="G692">
-        <f>E692+F692</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H692">
@@ -62057,7 +62218,7 @@
         <v>0</v>
       </c>
       <c r="G693">
-        <f>E693+F693</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H693">
@@ -62102,7 +62263,7 @@
         <v>1</v>
       </c>
       <c r="G694">
-        <f>E694+F694</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H694">
@@ -62147,7 +62308,7 @@
         <v>1</v>
       </c>
       <c r="G695">
-        <f>E695+F695</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H695">
@@ -62192,7 +62353,7 @@
         <v>0</v>
       </c>
       <c r="G696">
-        <f>E696+F696</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H696">
@@ -62237,7 +62398,7 @@
         <v>0</v>
       </c>
       <c r="G697">
-        <f>E697+F697</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H697">
@@ -62282,7 +62443,7 @@
         <v>1</v>
       </c>
       <c r="G698">
-        <f>E698+F698</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H698">
@@ -62327,7 +62488,7 @@
         <v>0</v>
       </c>
       <c r="G699">
-        <f>E699+F699</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H699">
@@ -62372,7 +62533,7 @@
         <v>3</v>
       </c>
       <c r="G700">
-        <f>E700+F700</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="H700">
@@ -62417,7 +62578,7 @@
         <v>1</v>
       </c>
       <c r="G701">
-        <f>E701+F701</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H701">
@@ -62462,7 +62623,7 @@
         <v>4</v>
       </c>
       <c r="G702">
-        <f>E702+F702</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="H702">
@@ -62507,7 +62668,7 @@
         <v>0</v>
       </c>
       <c r="G703">
-        <f>E703+F703</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H703">
@@ -62552,7 +62713,7 @@
         <v>0</v>
       </c>
       <c r="G704">
-        <f>E704+F704</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H704">
@@ -62597,7 +62758,7 @@
         <v>1</v>
       </c>
       <c r="G705">
-        <f>E705+F705</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H705">
@@ -62642,7 +62803,7 @@
         <v>0</v>
       </c>
       <c r="G706">
-        <f>E706+F706</f>
+        <f t="shared" ref="G706:G769" si="11">E706+F706</f>
         <v>0</v>
       </c>
       <c r="H706">
@@ -62687,7 +62848,7 @@
         <v>0</v>
       </c>
       <c r="G707">
-        <f>E707+F707</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H707">
@@ -62732,7 +62893,7 @@
         <v>1</v>
       </c>
       <c r="G708">
-        <f>E708+F708</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H708">
@@ -62777,7 +62938,7 @@
         <v>0</v>
       </c>
       <c r="G709">
-        <f>E709+F709</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H709">
@@ -62822,7 +62983,7 @@
         <v>0</v>
       </c>
       <c r="G710">
-        <f>E710+F710</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H710">
@@ -62867,7 +63028,7 @@
         <v>0</v>
       </c>
       <c r="G711">
-        <f>E711+F711</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H711">
@@ -62912,7 +63073,7 @@
         <v>0</v>
       </c>
       <c r="G712">
-        <f>E712+F712</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H712">
@@ -62957,7 +63118,7 @@
         <v>0</v>
       </c>
       <c r="G713">
-        <f>E713+F713</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H713">
